--- a/output.xlsx
+++ b/output.xlsx
@@ -397,14 +397,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F701"/>
+  <dimension ref="A1:F1052"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>The data for file:614_QPSASPGEL202207 CN COPY</v>
+        <v>The data for file : '614_QPSASPGEL202207 CN COPY'</v>
       </c>
     </row>
     <row r="2">
@@ -544,7 +544,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>The data for file:616_gelusil cn</v>
+        <v>The data for file : '616_gelusil cn'</v>
       </c>
     </row>
     <row r="11">
@@ -768,7 +768,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>The data for file:619_CN Gelusil</v>
+        <v>The data for file : '619_CN Gelusil'</v>
       </c>
     </row>
     <row r="24">
@@ -1097,7 +1097,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>The data for file:603_Medisales Bangalore</v>
+        <v>The data for file : '603_Medisales Bangalore'</v>
       </c>
     </row>
     <row r="42">
@@ -1856,7 +1856,7 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>The data for file:604_Sree Vamsee</v>
+        <v>The data for file : '604_Sree Vamsee'</v>
       </c>
     </row>
     <row r="80">
@@ -2501,7 +2501,7 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>The data for file:601_Trade Discount 5944 to 6011</v>
+        <v>The data for file : '601_Trade Discount 5944 to 6011'</v>
       </c>
     </row>
     <row r="113">
@@ -3964,7 +3964,7 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>The data for file:609_Pfizer Trade scheme for Gelusil 200ML CN to be done</v>
+        <v>The data for file : '609_Pfizer Trade scheme for Gelusil 200ML CN to be done'</v>
       </c>
     </row>
     <row r="185">
@@ -6057,7 +6057,7 @@
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>The data for file:615_Trade scheme for Gelusil 200ML</v>
+        <v>The data for file : '615_Trade scheme for Gelusil 200ML'</v>
       </c>
     </row>
     <row r="287">
@@ -9473,7 +9473,7 @@
     </row>
     <row r="451">
       <c r="A451" t="str">
-        <v>The data for file:606_trade discount cn</v>
+        <v>The data for file : '606_trade discount cn'</v>
       </c>
     </row>
     <row r="452">
@@ -11402,7 +11402,7 @@
     </row>
     <row r="545">
       <c r="A545" t="str">
-        <v>The data for file:605_Pfizer Trade scheme for Gelusil 200ML CN</v>
+        <v>The data for file : '605_Pfizer Trade scheme for Gelusil 200ML CN'</v>
       </c>
     </row>
     <row r="546">
@@ -14648,9 +14648,7284 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
+    <row r="702">
+      <c r="A702" t="str">
+        <v>The data for file : '608_MLPL INdorePfizer Trade scheme for Gelusil 200ML CN to be done_608 credit note PDF'</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="str">
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="str">
+        <v>title</v>
+      </c>
+      <c r="B704" t="str">
+        <v>docNo</v>
+      </c>
+      <c r="C704" t="str">
+        <v>Dated</v>
+      </c>
+      <c r="D704" t="str">
+        <v>Remarks</v>
+      </c>
+      <c r="E704" t="str">
+        <v>GrandTotal</v>
+      </c>
+      <c r="F704" t="str">
+        <v>PageNo</v>
+      </c>
+    </row>
+    <row r="705" xml:space="preserve">
+      <c r="A705" t="str">
+        <v>SINGHAL MEDICALS[MP0089]</v>
+      </c>
+      <c r="B705" t="str">
+        <v>608/23/T1-1566</v>
+      </c>
+      <c r="C705" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D705" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E705" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F705">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" xml:space="preserve">
+      <c r="A706" t="str">
+        <v>SINGHAL MEDICALS[MP0089]</v>
+      </c>
+      <c r="B706" t="str">
+        <v>608/23/T1-1567</v>
+      </c>
+      <c r="C706" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D706" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E706" t="str">
+        <v>1300</v>
+      </c>
+      <c r="F706">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="707" xml:space="preserve">
+      <c r="A707" t="str">
+        <v>HASHMI MEDICAL AGENCIES[MP0003]</v>
+      </c>
+      <c r="B707" t="str">
+        <v>608/23/T1-1568</v>
+      </c>
+      <c r="C707" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D707" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E707" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F707">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="708" xml:space="preserve">
+      <c r="A708" t="str">
+        <v>HASHMI MEDICAL AGENCIES[MP0003]</v>
+      </c>
+      <c r="B708" t="str">
+        <v>608/23/T1-1569</v>
+      </c>
+      <c r="C708" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D708" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E708" t="str">
+        <v>6100</v>
+      </c>
+      <c r="F708">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="709" xml:space="preserve">
+      <c r="A709" t="str">
+        <v>HASHMI MEDICAL AGENCIES[MP0003]</v>
+      </c>
+      <c r="B709" t="str">
+        <v>608/23/T1-1570</v>
+      </c>
+      <c r="C709" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D709" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E709" t="str">
+        <v>26100</v>
+      </c>
+      <c r="F709">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="710" xml:space="preserve">
+      <c r="A710" t="str">
+        <v>HASHMI MEDICAL AGENCIES[MP0003]</v>
+      </c>
+      <c r="B710" t="str">
+        <v>608/23/T1-1571</v>
+      </c>
+      <c r="C710" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D710" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E710" t="str">
+        <v>29500</v>
+      </c>
+      <c r="F710">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="711" xml:space="preserve">
+      <c r="A711" t="str">
+        <v>G. L. PHARMA[MP0005]</v>
+      </c>
+      <c r="B711" t="str">
+        <v>608/23/T1-1572</v>
+      </c>
+      <c r="C711" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D711" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E711" t="str">
+        <v>7500</v>
+      </c>
+      <c r="F711">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="712" xml:space="preserve">
+      <c r="A712" t="str">
+        <v>G. L. PHARMA[MP0005]</v>
+      </c>
+      <c r="B712" t="str">
+        <v>608/23/T1-1573</v>
+      </c>
+      <c r="C712" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D712" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E712" t="str">
+        <v>14100</v>
+      </c>
+      <c r="F712">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="713" xml:space="preserve">
+      <c r="A713" t="str">
+        <v>GANESH MEDICAL &amp; GENERAL AGENCY[MP0006]</v>
+      </c>
+      <c r="B713" t="str">
+        <v>608/23/T1-1574</v>
+      </c>
+      <c r="C713" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D713" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E713" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F713">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="714" xml:space="preserve">
+      <c r="A714" t="str">
+        <v>GANESH MEDICAL &amp; GENERAL AGENCY[MP0006]</v>
+      </c>
+      <c r="B714" t="str">
+        <v>608/23/T1-1575</v>
+      </c>
+      <c r="C714" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D714" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E714" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F714">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="715" xml:space="preserve">
+      <c r="A715" t="str">
+        <v>GANESH MEDICOSE[MP0009]</v>
+      </c>
+      <c r="B715" t="str">
+        <v>608/23/T1-1576</v>
+      </c>
+      <c r="C715" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D715" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E715" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F715">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="716" xml:space="preserve">
+      <c r="A716" t="str">
+        <v>CHHAJED AGENCIES[MP0012]</v>
+      </c>
+      <c r="B716" t="str">
+        <v>608/23/T1-1577</v>
+      </c>
+      <c r="C716" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D716" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E716" t="str">
+        <v>16800</v>
+      </c>
+      <c r="F716">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="717" xml:space="preserve">
+      <c r="A717" t="str">
+        <v>CITIZEN CHEMIST[MP0013]</v>
+      </c>
+      <c r="B717" t="str">
+        <v>608/23/T1-1578</v>
+      </c>
+      <c r="C717" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D717" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E717" t="str">
+        <v>17300</v>
+      </c>
+      <c r="F717">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="718" xml:space="preserve">
+      <c r="A718" t="str">
+        <v>CITIZEN CHEMIST[MP0013]</v>
+      </c>
+      <c r="B718" t="str">
+        <v>608/23/T1-1579</v>
+      </c>
+      <c r="C718" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D718" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E718" t="str">
+        <v>12600</v>
+      </c>
+      <c r="F718">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="719" xml:space="preserve">
+      <c r="A719" t="str">
+        <v>CITIZEN CHEMIST[MP0013]</v>
+      </c>
+      <c r="B719" t="str">
+        <v>608/23/T1-1580</v>
+      </c>
+      <c r="C719" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D719" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E719" t="str">
+        <v>8800</v>
+      </c>
+      <c r="F719">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="720" xml:space="preserve">
+      <c r="A720" t="str">
+        <v>CITIZEN CHEMIST[MP0013]</v>
+      </c>
+      <c r="B720" t="str">
+        <v>608/23/T1-1581</v>
+      </c>
+      <c r="C720" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D720" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E720" t="str">
+        <v>21600</v>
+      </c>
+      <c r="F720">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="721" xml:space="preserve">
+      <c r="A721" t="str">
+        <v>CITIZEN CHEMIST[MP0013]</v>
+      </c>
+      <c r="B721" t="str">
+        <v>608/23/T1-1582</v>
+      </c>
+      <c r="C721" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D721" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E721" t="str">
+        <v>4500</v>
+      </c>
+      <c r="F721">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="722" xml:space="preserve">
+      <c r="A722" t="str">
+        <v>MEDICURE LABORATORIES[MP0018]</v>
+      </c>
+      <c r="B722" t="str">
+        <v>608/23/T1-1583</v>
+      </c>
+      <c r="C722" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D722" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E722" t="str">
+        <v>2700</v>
+      </c>
+      <c r="F722">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="723" xml:space="preserve">
+      <c r="A723" t="str">
+        <v>R.MEDICO[MP0022]</v>
+      </c>
+      <c r="B723" t="str">
+        <v>608/23/T1-1584</v>
+      </c>
+      <c r="C723" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D723" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E723" t="str">
+        <v>5600</v>
+      </c>
+      <c r="F723">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="724" xml:space="preserve">
+      <c r="A724" t="str">
+        <v>BACHHAN MEDICAL AGENCIES[MP0028]</v>
+      </c>
+      <c r="B724" t="str">
+        <v>608/23/T1-1585</v>
+      </c>
+      <c r="C724" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D724" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E724" t="str">
+        <v>1300</v>
+      </c>
+      <c r="F724">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="725" xml:space="preserve">
+      <c r="A725" t="str">
+        <v>BACHHAN MEDICAL AGENCIES[MP0028]</v>
+      </c>
+      <c r="B725" t="str">
+        <v>608/23/T1-1586</v>
+      </c>
+      <c r="C725" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D725" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E725" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F725">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="726" xml:space="preserve">
+      <c r="A726" t="str">
+        <v>BANSAL MEDICAL AGENCIES[MP0029]</v>
+      </c>
+      <c r="B726" t="str">
+        <v>608/23/T1-1587</v>
+      </c>
+      <c r="C726" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D726" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E726" t="str">
+        <v>9900</v>
+      </c>
+      <c r="F726">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="727" xml:space="preserve">
+      <c r="A727" t="str">
+        <v>GAGAN MEDICAL AGENCIES[MP0032]</v>
+      </c>
+      <c r="B727" t="str">
+        <v>608/23/T1-1588</v>
+      </c>
+      <c r="C727" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D727" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E727" t="str">
+        <v>6100</v>
+      </c>
+      <c r="F727">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="728" xml:space="preserve">
+      <c r="A728" t="str">
+        <v>JAIN CHEMIST[MP0033]</v>
+      </c>
+      <c r="B728" t="str">
+        <v>608/23/T1-1589</v>
+      </c>
+      <c r="C728" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D728" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E728" t="str">
+        <v>28600</v>
+      </c>
+      <c r="F728">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="729" xml:space="preserve">
+      <c r="A729" t="str">
+        <v>JAIN CHEMIST[MP0033]</v>
+      </c>
+      <c r="B729" t="str">
+        <v>608/23/T1-1590</v>
+      </c>
+      <c r="C729" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D729" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E729" t="str">
+        <v>4100</v>
+      </c>
+      <c r="F729">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="730" xml:space="preserve">
+      <c r="A730" t="str">
+        <v>JAIN CHEMIST[MP0033]</v>
+      </c>
+      <c r="B730" t="str">
+        <v>608/23/T1-1591</v>
+      </c>
+      <c r="C730" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D730" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E730" t="str">
+        <v>12800</v>
+      </c>
+      <c r="F730">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="731" xml:space="preserve">
+      <c r="A731" t="str">
+        <v>RAJESH MEDICAL AGENCIES[MP0039]</v>
+      </c>
+      <c r="B731" t="str">
+        <v>608/23/T1-1592</v>
+      </c>
+      <c r="C731" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D731" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E731" t="str">
+        <v>20800</v>
+      </c>
+      <c r="F731">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="732" xml:space="preserve">
+      <c r="A732" t="str">
+        <v>RAJESH MEDICAL AGENCIES[MP0039]</v>
+      </c>
+      <c r="B732" t="str">
+        <v>608/23/T1-1593</v>
+      </c>
+      <c r="C732" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D732" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E732" t="str">
+        <v>19500</v>
+      </c>
+      <c r="F732">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="733" xml:space="preserve">
+      <c r="A733" t="str">
+        <v>USHA PHARMA[MP0043]</v>
+      </c>
+      <c r="B733" t="str">
+        <v>608/23/T1-1594</v>
+      </c>
+      <c r="C733" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D733" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E733" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F733">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="734" xml:space="preserve">
+      <c r="A734" t="str">
+        <v>VIJAY MEDICALS[MP0046]</v>
+      </c>
+      <c r="B734" t="str">
+        <v>608/23/T1-1595</v>
+      </c>
+      <c r="C734" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D734" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E734" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F734">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="735" xml:space="preserve">
+      <c r="A735" t="str">
+        <v>TRIMURTI PHARMACEUTICALS[MP0048]</v>
+      </c>
+      <c r="B735" t="str">
+        <v>608/23/T1-1596</v>
+      </c>
+      <c r="C735" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D735" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E735" t="str">
+        <v>12800</v>
+      </c>
+      <c r="F735">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="736" xml:space="preserve">
+      <c r="A736" t="str">
+        <v>TRIMURTI PHARMACEUTICALS[MP0048]</v>
+      </c>
+      <c r="B736" t="str">
+        <v>608/23/T1-1597</v>
+      </c>
+      <c r="C736" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D736" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E736" t="str">
+        <v>17100</v>
+      </c>
+      <c r="F736">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="737" xml:space="preserve">
+      <c r="A737" t="str">
+        <v>NARMADA MEDICAL AGENCIES[MP0052]</v>
+      </c>
+      <c r="B737" t="str">
+        <v>608/23/T1-1598</v>
+      </c>
+      <c r="C737" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D737" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E737" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F737">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="738" xml:space="preserve">
+      <c r="A738" t="str">
+        <v>NARMADA MEDICAL AGENCIES[MP0052]</v>
+      </c>
+      <c r="B738" t="str">
+        <v>608/23/T1-1599</v>
+      </c>
+      <c r="C738" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D738" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E738" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F738">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="739" xml:space="preserve">
+      <c r="A739" t="str">
+        <v>VIJAY MEDICAL AGENCIES[MP0063]</v>
+      </c>
+      <c r="B739" t="str">
+        <v>608/23/T1-1600</v>
+      </c>
+      <c r="C739" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D739" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E739" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F739">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="740" xml:space="preserve">
+      <c r="A740" t="str">
+        <v>PRIYANKA SALES AGENCIES[MP0064]</v>
+      </c>
+      <c r="B740" t="str">
+        <v>608/23/T1-1601</v>
+      </c>
+      <c r="C740" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D740" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E740" t="str">
+        <v>4900</v>
+      </c>
+      <c r="F740">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="741" xml:space="preserve">
+      <c r="A741" t="str">
+        <v>KANTILAL &amp; BROTHERS[MP0065]</v>
+      </c>
+      <c r="B741" t="str">
+        <v>608/23/T1-1602</v>
+      </c>
+      <c r="C741" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D741" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E741" t="str">
+        <v>17100</v>
+      </c>
+      <c r="F741">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="742" xml:space="preserve">
+      <c r="A742" t="str">
+        <v>KANTILAL &amp; BROTHERS[MP0065]</v>
+      </c>
+      <c r="B742" t="str">
+        <v>608/23/T1-1603</v>
+      </c>
+      <c r="C742" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D742" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E742" t="str">
+        <v>25400</v>
+      </c>
+      <c r="F742">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="743" xml:space="preserve">
+      <c r="A743" t="str">
+        <v>RACHNA MEDICAL AGENCIES[MP0067]</v>
+      </c>
+      <c r="B743" t="str">
+        <v>608/23/T1-1604</v>
+      </c>
+      <c r="C743" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D743" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E743" t="str">
+        <v>20300</v>
+      </c>
+      <c r="F743">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="744" xml:space="preserve">
+      <c r="A744" t="str">
+        <v>AMRIT PHARMA[MP0071]</v>
+      </c>
+      <c r="B744" t="str">
+        <v>608/23/T1-1605</v>
+      </c>
+      <c r="C744" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D744" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E744" t="str">
+        <v>1300</v>
+      </c>
+      <c r="F744">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="745" xml:space="preserve">
+      <c r="A745" t="str">
+        <v>AMRIT PHARMA[MP0071]</v>
+      </c>
+      <c r="B745" t="str">
+        <v>608/23/T1-1606</v>
+      </c>
+      <c r="C745" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D745" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E745" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F745">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="746" xml:space="preserve">
+      <c r="A746" t="str">
+        <v>AMRIT PHARMA[MP0071]</v>
+      </c>
+      <c r="B746" t="str">
+        <v>608/23/T1-1607</v>
+      </c>
+      <c r="C746" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D746" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E746" t="str">
+        <v>5600</v>
+      </c>
+      <c r="F746">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="747" xml:space="preserve">
+      <c r="A747" t="str">
+        <v>AMRIT PHARMA[MP0071]</v>
+      </c>
+      <c r="B747" t="str">
+        <v>608/23/T1-1608</v>
+      </c>
+      <c r="C747" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D747" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E747" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F747">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="748" xml:space="preserve">
+      <c r="A748" t="str">
+        <v>RAMA PHARMA AGENCIES[MP0072]</v>
+      </c>
+      <c r="B748" t="str">
+        <v>608/23/T1-1609</v>
+      </c>
+      <c r="C748" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D748" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E748" t="str">
+        <v>14100</v>
+      </c>
+      <c r="F748">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="749" xml:space="preserve">
+      <c r="A749" t="str">
+        <v>VIJAY PHARMA[MP0074]</v>
+      </c>
+      <c r="B749" t="str">
+        <v>608/23/T1-1610</v>
+      </c>
+      <c r="C749" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D749" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E749" t="str">
+        <v>11200</v>
+      </c>
+      <c r="F749">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="750" xml:space="preserve">
+      <c r="A750" t="str">
+        <v>VIJAY PHARMA[MP0074]</v>
+      </c>
+      <c r="B750" t="str">
+        <v>608/23/T1-1611</v>
+      </c>
+      <c r="C750" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D750" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E750" t="str">
+        <v>14600</v>
+      </c>
+      <c r="F750">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="751" xml:space="preserve">
+      <c r="A751" t="str">
+        <v>SWATI MEDICOSE[MP0078]</v>
+      </c>
+      <c r="B751" t="str">
+        <v>608/23/T1-1612</v>
+      </c>
+      <c r="C751" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D751" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E751" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F751">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="752" xml:space="preserve">
+      <c r="A752" t="str">
+        <v>ANUPAM MEDICO[MP0083]</v>
+      </c>
+      <c r="B752" t="str">
+        <v>608/23/T1-1613</v>
+      </c>
+      <c r="C752" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D752" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E752" t="str">
+        <v>5400</v>
+      </c>
+      <c r="F752">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="753" xml:space="preserve">
+      <c r="A753" t="str">
+        <v>SINGHAI MEDICOSE[MP0084]</v>
+      </c>
+      <c r="B753" t="str">
+        <v>608/23/T1-1614</v>
+      </c>
+      <c r="C753" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D753" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E753" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F753">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="754" xml:space="preserve">
+      <c r="A754" t="str">
+        <v>ARUN PHARMATICS[MP0088]</v>
+      </c>
+      <c r="B754" t="str">
+        <v>608/23/T1-1615</v>
+      </c>
+      <c r="C754" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D754" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E754" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F754">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="755" xml:space="preserve">
+      <c r="A755" t="str">
+        <v>ARUN PHARMATICS[MP0088]</v>
+      </c>
+      <c r="B755" t="str">
+        <v>608/23/T1-1616</v>
+      </c>
+      <c r="C755" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D755" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E755" t="str">
+        <v>9600</v>
+      </c>
+      <c r="F755">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="756" xml:space="preserve">
+      <c r="A756" t="str">
+        <v>VIJAY MEDICAL STORES[MP0091]</v>
+      </c>
+      <c r="B756" t="str">
+        <v>608/23/T1-1617</v>
+      </c>
+      <c r="C756" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D756" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E756" t="str">
+        <v>9900</v>
+      </c>
+      <c r="F756">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="757" xml:space="preserve">
+      <c r="A757" t="str">
+        <v>SYNCHEM DISTRIBUTORS PVT LTD[MP0092]</v>
+      </c>
+      <c r="B757" t="str">
+        <v>608/23/T1-1618</v>
+      </c>
+      <c r="C757" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D757" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E757" t="str">
+        <v>17100</v>
+      </c>
+      <c r="F757">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="758" xml:space="preserve">
+      <c r="A758" t="str">
+        <v>SYNCHEM DISTRIBUTORS PVT LTD[MP0092]</v>
+      </c>
+      <c r="B758" t="str">
+        <v>608/23/T1-1619</v>
+      </c>
+      <c r="C758" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D758" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E758" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F758">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="759" xml:space="preserve">
+      <c r="A759" t="str">
+        <v>SINDH MEDICAL STORES[MP0095]</v>
+      </c>
+      <c r="B759" t="str">
+        <v>608/23/T1-1620</v>
+      </c>
+      <c r="C759" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D759" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E759" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F759">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="760" xml:space="preserve">
+      <c r="A760" t="str">
+        <v>SINDH MEDICAL STORES[MP0095]</v>
+      </c>
+      <c r="B760" t="str">
+        <v>608/23/T1-1621</v>
+      </c>
+      <c r="C760" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D760" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E760" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F760">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="761" xml:space="preserve">
+      <c r="A761" t="str">
+        <v>SINDH MEDICAL STORES[MP0095]</v>
+      </c>
+      <c r="B761" t="str">
+        <v>608/23/T1-1622</v>
+      </c>
+      <c r="C761" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D761" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E761" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F761">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="762" xml:space="preserve">
+      <c r="A762" t="str">
+        <v>KARAN MEDICAL AGENCIES[MP0096]</v>
+      </c>
+      <c r="B762" t="str">
+        <v>608/23/T1-1623</v>
+      </c>
+      <c r="C762" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D762" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E762" t="str">
+        <v>12800</v>
+      </c>
+      <c r="F762">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="763" xml:space="preserve">
+      <c r="A763" t="str">
+        <v>KARAN MEDICAL AGENCIES[MP0096]</v>
+      </c>
+      <c r="B763" t="str">
+        <v>608/23/T1-1624</v>
+      </c>
+      <c r="C763" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D763" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E763" t="str">
+        <v>12800</v>
+      </c>
+      <c r="F763">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="764" xml:space="preserve">
+      <c r="A764" t="str">
+        <v>ONKARLAL JAGANNATH CHEMIST[MP0100]</v>
+      </c>
+      <c r="B764" t="str">
+        <v>608/23/T1-1625</v>
+      </c>
+      <c r="C764" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D764" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E764" t="str">
+        <v>17300</v>
+      </c>
+      <c r="F764">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="765" xml:space="preserve">
+      <c r="A765" t="str">
+        <v>BHADADA MEDICAL AGENCIES[MP0101]</v>
+      </c>
+      <c r="B765" t="str">
+        <v>608/23/T1-1626</v>
+      </c>
+      <c r="C765" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D765" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E765" t="str">
+        <v>9800</v>
+      </c>
+      <c r="F765">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="766" xml:space="preserve">
+      <c r="A766" t="str">
+        <v>AHUJA MEDICAL AGENCIES[MP0103]</v>
+      </c>
+      <c r="B766" t="str">
+        <v>608/23/T1-1627</v>
+      </c>
+      <c r="C766" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D766" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E766" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F766">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="767" xml:space="preserve">
+      <c r="A767" t="str">
+        <v>JYOTI MEDICAL STORES[MP0109]</v>
+      </c>
+      <c r="B767" t="str">
+        <v>608/23/T1-1628</v>
+      </c>
+      <c r="C767" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D767" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E767" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F767">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="768" xml:space="preserve">
+      <c r="A768" t="str">
+        <v>RAMA MEDICAL STORE[MP0113]</v>
+      </c>
+      <c r="B768" t="str">
+        <v>608/23/T1-1629</v>
+      </c>
+      <c r="C768" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D768" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E768" t="str">
+        <v>42700</v>
+      </c>
+      <c r="F768">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="769" xml:space="preserve">
+      <c r="A769" t="str">
+        <v>RAMA MEDICAL STORE[MP0113]</v>
+      </c>
+      <c r="B769" t="str">
+        <v>608/23/T1-1630</v>
+      </c>
+      <c r="C769" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D769" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E769" t="str">
+        <v>42700</v>
+      </c>
+      <c r="F769">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="770" xml:space="preserve">
+      <c r="A770" t="str">
+        <v>VISHNU MEDICAL STORES[MP0116]</v>
+      </c>
+      <c r="B770" t="str">
+        <v>608/23/T1-1631</v>
+      </c>
+      <c r="C770" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D770" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E770" t="str">
+        <v>5000</v>
+      </c>
+      <c r="F770">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="771" xml:space="preserve">
+      <c r="A771" t="str">
+        <v>VISHNU MEDICAL STORES[MP0116]</v>
+      </c>
+      <c r="B771" t="str">
+        <v>608/23/T1-1632</v>
+      </c>
+      <c r="C771" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D771" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E771" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F771">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="772" xml:space="preserve">
+      <c r="A772" t="str">
+        <v>VISHNU MEDICAL STORES[MP0116]</v>
+      </c>
+      <c r="B772" t="str">
+        <v>608/23/T1-1633</v>
+      </c>
+      <c r="C772" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D772" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E772" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F772">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="773" xml:space="preserve">
+      <c r="A773" t="str">
+        <v>VISHNU MEDICAL STORES[MP0116]</v>
+      </c>
+      <c r="B773" t="str">
+        <v>608/23/T1-1634</v>
+      </c>
+      <c r="C773" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D773" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E773" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F773">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="774" xml:space="preserve">
+      <c r="A774" t="str">
+        <v>AGARWAL MEDICAL STORES[MP0117]</v>
+      </c>
+      <c r="B774" t="str">
+        <v>608/23/T1-1635</v>
+      </c>
+      <c r="C774" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D774" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E774" t="str">
+        <v>22400</v>
+      </c>
+      <c r="F774">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="775" xml:space="preserve">
+      <c r="A775" t="str">
+        <v>AGARWAL MEDICAL STORES[MP0117]</v>
+      </c>
+      <c r="B775" t="str">
+        <v>608/23/T1-1636</v>
+      </c>
+      <c r="C775" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D775" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E775" t="str">
+        <v>24800</v>
+      </c>
+      <c r="F775">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="776" xml:space="preserve">
+      <c r="A776" t="str">
+        <v>YOGESH AGENCIES[MP0120]</v>
+      </c>
+      <c r="B776" t="str">
+        <v>608/23/T1-1637</v>
+      </c>
+      <c r="C776" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D776" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E776" t="str">
+        <v>17100</v>
+      </c>
+      <c r="F776">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="777" xml:space="preserve">
+      <c r="A777" t="str">
+        <v>YOGESH AGENCIES[MP0120]</v>
+      </c>
+      <c r="B777" t="str">
+        <v>608/23/T1-1638</v>
+      </c>
+      <c r="C777" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D777" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E777" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F777">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="778" xml:space="preserve">
+      <c r="A778" t="str">
+        <v>DEEPAK MEDICAL STORES[MP0122]</v>
+      </c>
+      <c r="B778" t="str">
+        <v>608/23/T1-1639</v>
+      </c>
+      <c r="C778" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D778" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E778" t="str">
+        <v>1800</v>
+      </c>
+      <c r="F778">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="779" xml:space="preserve">
+      <c r="A779" t="str">
+        <v>DEEPAK MEDICAL STORES[MP0122]</v>
+      </c>
+      <c r="B779" t="str">
+        <v>608/23/T1-1640</v>
+      </c>
+      <c r="C779" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D779" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E779" t="str">
+        <v>6100</v>
+      </c>
+      <c r="F779">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="780" xml:space="preserve">
+      <c r="A780" t="str">
+        <v>DEEPAK MEDICAL STORES[MP0122]</v>
+      </c>
+      <c r="B780" t="str">
+        <v>608/23/T1-1641</v>
+      </c>
+      <c r="C780" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D780" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E780" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F780">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="781" xml:space="preserve">
+      <c r="A781" t="str">
+        <v>SURESH MEDICAL STORES[MP0123]</v>
+      </c>
+      <c r="B781" t="str">
+        <v>608/23/T1-1642</v>
+      </c>
+      <c r="C781" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D781" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E781" t="str">
+        <v>5000</v>
+      </c>
+      <c r="F781">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="782" xml:space="preserve">
+      <c r="A782" t="str">
+        <v>SOBEG SINGH SAHANI &amp; SONS[MP0129]</v>
+      </c>
+      <c r="B782" t="str">
+        <v>608/23/T1-1643</v>
+      </c>
+      <c r="C782" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D782" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E782" t="str">
+        <v>42700</v>
+      </c>
+      <c r="F782">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="783" xml:space="preserve">
+      <c r="A783" t="str">
+        <v>SOBEG SINGH SAHANI &amp; SONS[MP0129]</v>
+      </c>
+      <c r="B783" t="str">
+        <v>608/23/T1-1644</v>
+      </c>
+      <c r="C783" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D783" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E783" t="str">
+        <v>46400</v>
+      </c>
+      <c r="F783">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="784" xml:space="preserve">
+      <c r="A784" t="str">
+        <v>SOBEG SINGH SAHANI &amp; SONS[MP0129]</v>
+      </c>
+      <c r="B784" t="str">
+        <v>608/23/T1-1645</v>
+      </c>
+      <c r="C784" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D784" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E784" t="str">
+        <v>46400</v>
+      </c>
+      <c r="F784">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="785" xml:space="preserve">
+      <c r="A785" t="str">
+        <v>SOBEG SINGH SAHANI &amp; SONS[MP0129]</v>
+      </c>
+      <c r="B785" t="str">
+        <v>608/23/T1-1646</v>
+      </c>
+      <c r="C785" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D785" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E785" t="str">
+        <v>42700</v>
+      </c>
+      <c r="F785">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="786" xml:space="preserve">
+      <c r="A786" t="str">
+        <v>SOBEG SINGH SAHANI &amp; SONS[MP0129]</v>
+      </c>
+      <c r="B786" t="str">
+        <v>608/23/T1-1647</v>
+      </c>
+      <c r="C786" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D786" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E786" t="str">
+        <v>120800</v>
+      </c>
+      <c r="F786">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="787" xml:space="preserve">
+      <c r="A787" t="str">
+        <v>GYAN PHARMA &amp; GENERAL AGENCIES[MP0132]</v>
+      </c>
+      <c r="B787" t="str">
+        <v>608/23/T1-1648</v>
+      </c>
+      <c r="C787" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D787" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E787" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F787">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="788" xml:space="preserve">
+      <c r="A788" t="str">
+        <v>GYAN PHARMA &amp; GENERAL AGENCIES[MP0132]</v>
+      </c>
+      <c r="B788" t="str">
+        <v>608/23/T1-1649</v>
+      </c>
+      <c r="C788" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D788" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E788" t="str">
+        <v>17100</v>
+      </c>
+      <c r="F788">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="789" xml:space="preserve">
+      <c r="A789" t="str">
+        <v>VISHAL MEDICAL AGENCIES[MP0135]</v>
+      </c>
+      <c r="B789" t="str">
+        <v>608/23/T1-1650</v>
+      </c>
+      <c r="C789" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D789" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E789" t="str">
+        <v>22700</v>
+      </c>
+      <c r="F789">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="790" xml:space="preserve">
+      <c r="A790" t="str">
+        <v>VISHAL MEDICAL AGENCIES[MP0135]</v>
+      </c>
+      <c r="B790" t="str">
+        <v>608/23/T1-1651</v>
+      </c>
+      <c r="C790" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D790" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E790" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F790">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="791" xml:space="preserve">
+      <c r="A791" t="str">
+        <v>PHARMA SALES[MP0139]</v>
+      </c>
+      <c r="B791" t="str">
+        <v>608/23/T1-1652</v>
+      </c>
+      <c r="C791" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D791" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E791" t="str">
+        <v>2700</v>
+      </c>
+      <c r="F791">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="792" xml:space="preserve">
+      <c r="A792" t="str">
+        <v>MAHESH MEDICAL AND GENERAL AGE[MP0148]</v>
+      </c>
+      <c r="B792" t="str">
+        <v>608/23/T1-1653</v>
+      </c>
+      <c r="C792" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D792" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E792" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F792">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="793" xml:space="preserve">
+      <c r="A793" t="str">
+        <v>MODERN MEDICAL STORES[MP0152]</v>
+      </c>
+      <c r="B793" t="str">
+        <v>608/23/T1-1654</v>
+      </c>
+      <c r="C793" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D793" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E793" t="str">
+        <v>5600</v>
+      </c>
+      <c r="F793">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="794" xml:space="preserve">
+      <c r="A794" t="str">
+        <v>MODERN MEDICAL STORES[MP0152]</v>
+      </c>
+      <c r="B794" t="str">
+        <v>608/23/T1-1655</v>
+      </c>
+      <c r="C794" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D794" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E794" t="str">
+        <v>5600</v>
+      </c>
+      <c r="F794">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="795" xml:space="preserve">
+      <c r="A795" t="str">
+        <v>R.K.TRADERS[MP0156]</v>
+      </c>
+      <c r="B795" t="str">
+        <v>608/23/T1-1656</v>
+      </c>
+      <c r="C795" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D795" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E795" t="str">
+        <v>35500</v>
+      </c>
+      <c r="F795">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="796" xml:space="preserve">
+      <c r="A796" t="str">
+        <v>RAMA MEDICAL AGENCIES[MP0158]</v>
+      </c>
+      <c r="B796" t="str">
+        <v>608/23/T1-1657</v>
+      </c>
+      <c r="C796" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D796" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E796" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F796">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="797" xml:space="preserve">
+      <c r="A797" t="str">
+        <v>SETHI PHARMA DISTRIBUTORS PVT LTD[MP0165]</v>
+      </c>
+      <c r="B797" t="str">
+        <v>608/23/T1-1658</v>
+      </c>
+      <c r="C797" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D797" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E797" t="str">
+        <v>17100</v>
+      </c>
+      <c r="F797">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="798" xml:space="preserve">
+      <c r="A798" t="str">
+        <v>SETHI PHARMA DISTRIBUTORS PVT LTD[MP0165]</v>
+      </c>
+      <c r="B798" t="str">
+        <v>608/23/T1-1659</v>
+      </c>
+      <c r="C798" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D798" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E798" t="str">
+        <v>12800</v>
+      </c>
+      <c r="F798">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="799" xml:space="preserve">
+      <c r="A799" t="str">
+        <v>SETHI PHARMA DISTRIBUTORS PVT LTD[MP0165]</v>
+      </c>
+      <c r="B799" t="str">
+        <v>608/23/T1-1660</v>
+      </c>
+      <c r="C799" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D799" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E799" t="str">
+        <v>15500</v>
+      </c>
+      <c r="F799">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="800" xml:space="preserve">
+      <c r="A800" t="str">
+        <v>SETHI PHARMA DISTRIBUTORS PVT LTD[MP0165]</v>
+      </c>
+      <c r="B800" t="str">
+        <v>608/23/T1-1661</v>
+      </c>
+      <c r="C800" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D800" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E800" t="str">
+        <v>5100</v>
+      </c>
+      <c r="F800">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="801" xml:space="preserve">
+      <c r="A801" t="str">
+        <v>BAJRANG MEDICAL AGENCY[MP0166]</v>
+      </c>
+      <c r="B801" t="str">
+        <v>608/23/T1-1662</v>
+      </c>
+      <c r="C801" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D801" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E801" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F801">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="802" xml:space="preserve">
+      <c r="A802" t="str">
+        <v>BAJRANG MEDICAL AGENCY[MP0166]</v>
+      </c>
+      <c r="B802" t="str">
+        <v>608/23/T1-1663</v>
+      </c>
+      <c r="C802" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D802" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E802" t="str">
+        <v>16800</v>
+      </c>
+      <c r="F802">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="803" xml:space="preserve">
+      <c r="A803" t="str">
+        <v>OM MEDICAL STORES[MP0167]</v>
+      </c>
+      <c r="B803" t="str">
+        <v>608/23/T1-1664</v>
+      </c>
+      <c r="C803" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D803" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E803" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F803">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="804" xml:space="preserve">
+      <c r="A804" t="str">
+        <v>PATNI BROTHERS[MP0169]</v>
+      </c>
+      <c r="B804" t="str">
+        <v>608/23/T1-1665</v>
+      </c>
+      <c r="C804" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D804" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E804" t="str">
+        <v>1300</v>
+      </c>
+      <c r="F804">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="805" xml:space="preserve">
+      <c r="A805" t="str">
+        <v>GOYAL MEDICOSE[MP0174]</v>
+      </c>
+      <c r="B805" t="str">
+        <v>608/23/T1-1666</v>
+      </c>
+      <c r="C805" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D805" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E805" t="str">
+        <v>5600</v>
+      </c>
+      <c r="F805">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="806" xml:space="preserve">
+      <c r="A806" t="str">
+        <v>GOYAL MEDICOSE[MP0174]</v>
+      </c>
+      <c r="B806" t="str">
+        <v>608/23/T1-1667</v>
+      </c>
+      <c r="C806" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D806" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E806" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F806">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="807" xml:space="preserve">
+      <c r="A807" t="str">
+        <v>GOYAL MEDICOSE[MP0174]</v>
+      </c>
+      <c r="B807" t="str">
+        <v>608/23/T1-1668</v>
+      </c>
+      <c r="C807" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D807" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E807" t="str">
+        <v>800</v>
+      </c>
+      <c r="F807">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="808" xml:space="preserve">
+      <c r="A808" t="str">
+        <v>HARIOM AGENCIES[MP0177]</v>
+      </c>
+      <c r="B808" t="str">
+        <v>608/23/T1-1669</v>
+      </c>
+      <c r="C808" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D808" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E808" t="str">
+        <v>100</v>
+      </c>
+      <c r="F808">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="809" xml:space="preserve">
+      <c r="A809" t="str">
+        <v>KHANDELWAL MEDICAL SOTRES[MP0180]</v>
+      </c>
+      <c r="B809" t="str">
+        <v>608/23/T1-1670</v>
+      </c>
+      <c r="C809" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D809" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E809" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F809">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="810" xml:space="preserve">
+      <c r="A810" t="str">
+        <v>AGRAWAL MEDICAL STORES[MP0182]</v>
+      </c>
+      <c r="B810" t="str">
+        <v>608/23/T1-1671</v>
+      </c>
+      <c r="C810" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D810" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E810" t="str">
+        <v>1300</v>
+      </c>
+      <c r="F810">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="811" xml:space="preserve">
+      <c r="A811" t="str">
+        <v>AGRAWAL MEDICAL STORES[MP0182]</v>
+      </c>
+      <c r="B811" t="str">
+        <v>608/23/T1-1672</v>
+      </c>
+      <c r="C811" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D811" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E811" t="str">
+        <v>14900</v>
+      </c>
+      <c r="F811">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="812" xml:space="preserve">
+      <c r="A812" t="str">
+        <v>AGRAWAL MEDICAL STORES[MP0182]</v>
+      </c>
+      <c r="B812" t="str">
+        <v>608/23/T1-1673</v>
+      </c>
+      <c r="C812" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D812" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E812" t="str">
+        <v>12800</v>
+      </c>
+      <c r="F812">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="813" xml:space="preserve">
+      <c r="A813" t="str">
+        <v>AGRAWAL MEDICAL STORES[MP0182]</v>
+      </c>
+      <c r="B813" t="str">
+        <v>608/23/T1-1674</v>
+      </c>
+      <c r="C813" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D813" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E813" t="str">
+        <v>1800</v>
+      </c>
+      <c r="F813">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="814" xml:space="preserve">
+      <c r="A814" t="str">
+        <v>AGRAWAL MEDICAL STORES[MP0182]</v>
+      </c>
+      <c r="B814" t="str">
+        <v>608/23/T1-1675</v>
+      </c>
+      <c r="C814" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D814" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E814" t="str">
+        <v>6100</v>
+      </c>
+      <c r="F814">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="815" xml:space="preserve">
+      <c r="A815" t="str">
+        <v>AGRAWAL AGENCIES[MP0185]</v>
+      </c>
+      <c r="B815" t="str">
+        <v>608/23/T1-1676</v>
+      </c>
+      <c r="C815" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D815" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E815" t="str">
+        <v>9900</v>
+      </c>
+      <c r="F815">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="816" xml:space="preserve">
+      <c r="A816" t="str">
+        <v>AGRAWAL AGENCIES[MP0185]</v>
+      </c>
+      <c r="B816" t="str">
+        <v>608/23/T1-1677</v>
+      </c>
+      <c r="C816" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D816" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E816" t="str">
+        <v>8200</v>
+      </c>
+      <c r="F816">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="817" xml:space="preserve">
+      <c r="A817" t="str">
+        <v>SANGEETA MEDICOSE[MP0198]</v>
+      </c>
+      <c r="B817" t="str">
+        <v>608/23/T1-1678</v>
+      </c>
+      <c r="C817" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D817" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E817" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F817">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="818" xml:space="preserve">
+      <c r="A818" t="str">
+        <v>RAJESH MEDICAL AGENCIE[MP0201]</v>
+      </c>
+      <c r="B818" t="str">
+        <v>608/23/T1-1679</v>
+      </c>
+      <c r="C818" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D818" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E818" t="str">
+        <v>17100</v>
+      </c>
+      <c r="F818">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="819" xml:space="preserve">
+      <c r="A819" t="str">
+        <v>RAJESH MEDICAL AGENCIE[MP0201]</v>
+      </c>
+      <c r="B819" t="str">
+        <v>608/23/T1-1680</v>
+      </c>
+      <c r="C819" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D819" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E819" t="str">
+        <v>2700</v>
+      </c>
+      <c r="F819">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="820" xml:space="preserve">
+      <c r="A820" t="str">
+        <v>RAJESH MEDICAL AGENCIE[MP0201]</v>
+      </c>
+      <c r="B820" t="str">
+        <v>608/23/T1-1681</v>
+      </c>
+      <c r="C820" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D820" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E820" t="str">
+        <v>17100</v>
+      </c>
+      <c r="F820">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="821" xml:space="preserve">
+      <c r="A821" t="str">
+        <v>NEW HIRA MEDICALS[MP0204]</v>
+      </c>
+      <c r="B821" t="str">
+        <v>608/23/T1-1682</v>
+      </c>
+      <c r="C821" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D821" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E821" t="str">
+        <v>22900</v>
+      </c>
+      <c r="F821">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="822" xml:space="preserve">
+      <c r="A822" t="str">
+        <v>NEW HIRA MEDICALS[MP0204]</v>
+      </c>
+      <c r="B822" t="str">
+        <v>608/23/T1-1683</v>
+      </c>
+      <c r="C822" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D822" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E822" t="str">
+        <v>25600</v>
+      </c>
+      <c r="F822">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="823" xml:space="preserve">
+      <c r="A823" t="str">
+        <v>NEW HIRA MEDICALS[MP0204]</v>
+      </c>
+      <c r="B823" t="str">
+        <v>608/23/T1-1684</v>
+      </c>
+      <c r="C823" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D823" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E823" t="str">
+        <v>12800</v>
+      </c>
+      <c r="F823">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="824" xml:space="preserve">
+      <c r="A824" t="str">
+        <v>NEW HIRA MEDICALS[MP0204]</v>
+      </c>
+      <c r="B824" t="str">
+        <v>608/23/T1-1685</v>
+      </c>
+      <c r="C824" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D824" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E824" t="str">
+        <v>16000</v>
+      </c>
+      <c r="F824">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="825" xml:space="preserve">
+      <c r="A825" t="str">
+        <v>SHREE PORWAL MED AGENCY[MP0206]</v>
+      </c>
+      <c r="B825" t="str">
+        <v>608/23/T1-1686</v>
+      </c>
+      <c r="C825" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D825" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E825" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F825">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="826" xml:space="preserve">
+      <c r="A826" t="str">
+        <v>ANIL MEDICO AGENCIES[MP0207]</v>
+      </c>
+      <c r="B826" t="str">
+        <v>608/23/T1-1687</v>
+      </c>
+      <c r="C826" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D826" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E826" t="str">
+        <v>6100</v>
+      </c>
+      <c r="F826">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="827" xml:space="preserve">
+      <c r="A827" t="str">
+        <v>ANIL MEDICO AGENCIES[MP0207]</v>
+      </c>
+      <c r="B827" t="str">
+        <v>608/23/T1-1688</v>
+      </c>
+      <c r="C827" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D827" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E827" t="str">
+        <v>11200</v>
+      </c>
+      <c r="F827">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="828" xml:space="preserve">
+      <c r="A828" t="str">
+        <v>ANIL MEDICO AGENCIES[MP0207]</v>
+      </c>
+      <c r="B828" t="str">
+        <v>608/23/T1-1689</v>
+      </c>
+      <c r="C828" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D828" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E828" t="str">
+        <v>11400</v>
+      </c>
+      <c r="F828">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="829" xml:space="preserve">
+      <c r="A829" t="str">
+        <v>CHOUDHARY MEDI SALES[MP0283]</v>
+      </c>
+      <c r="B829" t="str">
+        <v>608/23/T1-1690</v>
+      </c>
+      <c r="C829" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D829" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E829" t="str">
+        <v>9900</v>
+      </c>
+      <c r="F829">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="830" xml:space="preserve">
+      <c r="A830" t="str">
+        <v>CHOUDHARY MEDI SALES[MP0283]</v>
+      </c>
+      <c r="B830" t="str">
+        <v>608/23/T1-1691</v>
+      </c>
+      <c r="C830" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D830" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E830" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F830">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="831" xml:space="preserve">
+      <c r="A831" t="str">
+        <v>RAJ MEDICAL AGENCIES[MP0217]</v>
+      </c>
+      <c r="B831" t="str">
+        <v>608/23/T1-1692</v>
+      </c>
+      <c r="C831" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D831" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E831" t="str">
+        <v>9900</v>
+      </c>
+      <c r="F831">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="832" xml:space="preserve">
+      <c r="A832" t="str">
+        <v>RAJ MEDICAL AGENCIES[MP0217]</v>
+      </c>
+      <c r="B832" t="str">
+        <v>608/23/T1-1693</v>
+      </c>
+      <c r="C832" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D832" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E832" t="str">
+        <v>15500</v>
+      </c>
+      <c r="F832">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="833" xml:space="preserve">
+      <c r="A833" t="str">
+        <v>RAJ MEDICAL AGENCIES[MP0217]</v>
+      </c>
+      <c r="B833" t="str">
+        <v>608/23/T1-1694</v>
+      </c>
+      <c r="C833" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D833" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E833" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F833">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="834" xml:space="preserve">
+      <c r="A834" t="str">
+        <v>RAJESH PHARMA[MP0222]</v>
+      </c>
+      <c r="B834" t="str">
+        <v>608/23/T1-1695</v>
+      </c>
+      <c r="C834" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D834" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E834" t="str">
+        <v>6700</v>
+      </c>
+      <c r="F834">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="835" xml:space="preserve">
+      <c r="A835" t="str">
+        <v>RAJESH PHARMA[MP0222]</v>
+      </c>
+      <c r="B835" t="str">
+        <v>608/23/T1-1696</v>
+      </c>
+      <c r="C835" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D835" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E835" t="str">
+        <v>31300</v>
+      </c>
+      <c r="F835">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="836" xml:space="preserve">
+      <c r="A836" t="str">
+        <v>MAHAKAL PHARMA[MP0226]</v>
+      </c>
+      <c r="B836" t="str">
+        <v>608/23/T1-1697</v>
+      </c>
+      <c r="C836" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D836" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E836" t="str">
+        <v>7500</v>
+      </c>
+      <c r="F836">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="837" xml:space="preserve">
+      <c r="A837" t="str">
+        <v>BANSAL MEDICAL STORES[MP0227]</v>
+      </c>
+      <c r="B837" t="str">
+        <v>608/23/T1-1698</v>
+      </c>
+      <c r="C837" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D837" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E837" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F837">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="838" xml:space="preserve">
+      <c r="A838" t="str">
+        <v>GEE VEE MEDICO[MP0234]</v>
+      </c>
+      <c r="B838" t="str">
+        <v>608/23/T1-1699</v>
+      </c>
+      <c r="C838" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D838" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E838" t="str">
+        <v>2500</v>
+      </c>
+      <c r="F838">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="839" xml:space="preserve">
+      <c r="A839" t="str">
+        <v>KOTHARI MEDICAL AGENCIES[MP0241]</v>
+      </c>
+      <c r="B839" t="str">
+        <v>608/23/T1-1700</v>
+      </c>
+      <c r="C839" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D839" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E839" t="str">
+        <v>27200</v>
+      </c>
+      <c r="F839">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="840" xml:space="preserve">
+      <c r="A840" t="str">
+        <v>KOTHARI MEDICAL AGENCIES[MP0241]</v>
+      </c>
+      <c r="B840" t="str">
+        <v>608/23/T1-1701</v>
+      </c>
+      <c r="C840" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D840" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E840" t="str">
+        <v>29100</v>
+      </c>
+      <c r="F840">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="841" xml:space="preserve">
+      <c r="A841" t="str">
+        <v>KOTHARI MEDICAL AGENCIES[MP0241]</v>
+      </c>
+      <c r="B841" t="str">
+        <v>608/23/T1-1702</v>
+      </c>
+      <c r="C841" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D841" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E841" t="str">
+        <v>9900</v>
+      </c>
+      <c r="F841">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="842" xml:space="preserve">
+      <c r="A842" t="str">
+        <v>KOTHARI MEDICAL AGENCIES[MP0241]</v>
+      </c>
+      <c r="B842" t="str">
+        <v>608/23/T1-1703</v>
+      </c>
+      <c r="C842" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D842" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E842" t="str">
+        <v>21300</v>
+      </c>
+      <c r="F842">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="843" xml:space="preserve">
+      <c r="A843" t="str">
+        <v>SHREE MEDICAL STORES[MP0252]</v>
+      </c>
+      <c r="B843" t="str">
+        <v>608/23/T1-1704</v>
+      </c>
+      <c r="C843" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D843" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E843" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F843">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="844" xml:space="preserve">
+      <c r="A844" t="str">
+        <v>SHREE MEDICAL STORES[MP0252]</v>
+      </c>
+      <c r="B844" t="str">
+        <v>608/23/T1-1705</v>
+      </c>
+      <c r="C844" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D844" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E844" t="str">
+        <v>12800</v>
+      </c>
+      <c r="F844">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="845" xml:space="preserve">
+      <c r="A845" t="str">
+        <v>SHREE MEDICAL STORES[MP0252]</v>
+      </c>
+      <c r="B845" t="str">
+        <v>608/23/T1-1706</v>
+      </c>
+      <c r="C845" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D845" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E845" t="str">
+        <v>19400</v>
+      </c>
+      <c r="F845">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="846" xml:space="preserve">
+      <c r="A846" t="str">
+        <v>SATYA MEDICAL HALL[MP0260]</v>
+      </c>
+      <c r="B846" t="str">
+        <v>608/23/T1-1707</v>
+      </c>
+      <c r="C846" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D846" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E846" t="str">
+        <v>10400</v>
+      </c>
+      <c r="F846">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="847" xml:space="preserve">
+      <c r="A847" t="str">
+        <v>SATYA MEDICAL HALL[MP0260]</v>
+      </c>
+      <c r="B847" t="str">
+        <v>608/23/T1-1708</v>
+      </c>
+      <c r="C847" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D847" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E847" t="str">
+        <v>6500</v>
+      </c>
+      <c r="F847">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="848" xml:space="preserve">
+      <c r="A848" t="str">
+        <v>SATYA MEDICAL HALL[MP0260]</v>
+      </c>
+      <c r="B848" t="str">
+        <v>608/23/T1-1709</v>
+      </c>
+      <c r="C848" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D848" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E848" t="str">
+        <v>100</v>
+      </c>
+      <c r="F848">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="849" xml:space="preserve">
+      <c r="A849" t="str">
+        <v>SATYA MEDICAL HALL[MP0260]</v>
+      </c>
+      <c r="B849" t="str">
+        <v>608/23/T1-1710</v>
+      </c>
+      <c r="C849" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D849" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E849" t="str">
+        <v>33600</v>
+      </c>
+      <c r="F849">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="850" xml:space="preserve">
+      <c r="A850" t="str">
+        <v>JATASHANKAR PHARMA[MP0261]</v>
+      </c>
+      <c r="B850" t="str">
+        <v>608/23/T1-1711</v>
+      </c>
+      <c r="C850" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D850" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E850" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F850">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="851" xml:space="preserve">
+      <c r="A851" t="str">
+        <v>OSHO AGENCIES[MP0262]</v>
+      </c>
+      <c r="B851" t="str">
+        <v>608/23/T1-1712</v>
+      </c>
+      <c r="C851" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D851" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E851" t="str">
+        <v>69800</v>
+      </c>
+      <c r="F851">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="852" xml:space="preserve">
+      <c r="A852" t="str">
+        <v>OSHO AGENCIES[MP0262]</v>
+      </c>
+      <c r="B852" t="str">
+        <v>608/23/T1-1713</v>
+      </c>
+      <c r="C852" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D852" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E852" t="str">
+        <v>69200</v>
+      </c>
+      <c r="F852">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="853" xml:space="preserve">
+      <c r="A853" t="str">
+        <v>OSHO AGENCIES[MP0262]</v>
+      </c>
+      <c r="B853" t="str">
+        <v>608/23/T1-1714</v>
+      </c>
+      <c r="C853" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D853" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E853" t="str">
+        <v>68900</v>
+      </c>
+      <c r="F853">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="854" xml:space="preserve">
+      <c r="A854" t="str">
+        <v>USHA MEDICAL STORES[MP0264]</v>
+      </c>
+      <c r="B854" t="str">
+        <v>608/23/T1-1715</v>
+      </c>
+      <c r="C854" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D854" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E854" t="str">
+        <v>12200</v>
+      </c>
+      <c r="F854">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="855" xml:space="preserve">
+      <c r="A855" t="str">
+        <v>USHA MEDICAL STORES[MP0264]</v>
+      </c>
+      <c r="B855" t="str">
+        <v>608/23/T1-1716</v>
+      </c>
+      <c r="C855" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D855" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E855" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F855">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="856" xml:space="preserve">
+      <c r="A856" t="str">
+        <v>USHA MEDICAL STORES[MP0264]</v>
+      </c>
+      <c r="B856" t="str">
+        <v>608/23/T1-1717</v>
+      </c>
+      <c r="C856" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D856" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E856" t="str">
+        <v>11000</v>
+      </c>
+      <c r="F856">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="857" xml:space="preserve">
+      <c r="A857" t="str">
+        <v>USHA MEDICAL STORES[MP0264]</v>
+      </c>
+      <c r="B857" t="str">
+        <v>608/23/T1-1718</v>
+      </c>
+      <c r="C857" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D857" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E857" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F857">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="858" xml:space="preserve">
+      <c r="A858" t="str">
+        <v>RAJESH MEDICOSE[MP0265]</v>
+      </c>
+      <c r="B858" t="str">
+        <v>608/23/T1-1719</v>
+      </c>
+      <c r="C858" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D858" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E858" t="str">
+        <v>18200</v>
+      </c>
+      <c r="F858">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="859" xml:space="preserve">
+      <c r="A859" t="str">
+        <v>RAJESH MEDICOSE[MP0265]</v>
+      </c>
+      <c r="B859" t="str">
+        <v>608/23/T1-1720</v>
+      </c>
+      <c r="C859" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D859" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E859" t="str">
+        <v>12800</v>
+      </c>
+      <c r="F859">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="860" xml:space="preserve">
+      <c r="A860" t="str">
+        <v>RAJESH MEDICOSE[MP0265]</v>
+      </c>
+      <c r="B860" t="str">
+        <v>608/23/T1-1721</v>
+      </c>
+      <c r="C860" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D860" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E860" t="str">
+        <v>18200</v>
+      </c>
+      <c r="F860">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="861" xml:space="preserve">
+      <c r="A861" t="str">
+        <v>CHANDRA AGENCEIS[MP0272]</v>
+      </c>
+      <c r="B861" t="str">
+        <v>608/23/T1-1722</v>
+      </c>
+      <c r="C861" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D861" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E861" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F861">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="str">
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="str">
+        <v>The data for file : '611_CN-TRADE DISCOUNT GELUSIL MPS LIQUID 200ML-A'</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="str">
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="str">
+        <v>title</v>
+      </c>
+      <c r="B865" t="str">
+        <v>docNo</v>
+      </c>
+      <c r="C865" t="str">
+        <v>Dated</v>
+      </c>
+      <c r="D865" t="str">
+        <v>Remarks</v>
+      </c>
+      <c r="E865" t="str">
+        <v>GrandTotal</v>
+      </c>
+      <c r="F865" t="str">
+        <v>PageNo</v>
+      </c>
+    </row>
+    <row r="866" xml:space="preserve">
+      <c r="A866" t="str">
+        <v>UMA ENTERPRISES[BR0237]</v>
+      </c>
+      <c r="B866" t="str">
+        <v>611/23/T1-2366</v>
+      </c>
+      <c r="C866" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D866" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E866" t="str">
+        <v>12500</v>
+      </c>
+      <c r="F866">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="867" xml:space="preserve">
+      <c r="A867" t="str">
+        <v>FRIENDS MEDICAL STORE[BR0239]</v>
+      </c>
+      <c r="B867" t="str">
+        <v>611/23/T1-2367</v>
+      </c>
+      <c r="C867" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D867" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E867" t="str">
+        <v>9400</v>
+      </c>
+      <c r="F867">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="868" xml:space="preserve">
+      <c r="A868" t="str">
+        <v>MANOJ PHARMA[BR0240]</v>
+      </c>
+      <c r="B868" t="str">
+        <v>611/23/T1-2368</v>
+      </c>
+      <c r="C868" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D868" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E868" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F868">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="869" xml:space="preserve">
+      <c r="A869" t="str">
+        <v>MANOJ PHARMA[BR0240]</v>
+      </c>
+      <c r="B869" t="str">
+        <v>611/23/T1-2369</v>
+      </c>
+      <c r="C869" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D869" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E869" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F869">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="870" xml:space="preserve">
+      <c r="A870" t="str">
+        <v>SHRI LAXMI PHARMA[BR0243]</v>
+      </c>
+      <c r="B870" t="str">
+        <v>611/23/T1-2370</v>
+      </c>
+      <c r="C870" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D870" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E870" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F870">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="871" xml:space="preserve">
+      <c r="A871" t="str">
+        <v>ADARSH MEDICAL STORE[BR0244]</v>
+      </c>
+      <c r="B871" t="str">
+        <v>611/23/T1-2371</v>
+      </c>
+      <c r="C871" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D871" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E871" t="str">
+        <v>5600</v>
+      </c>
+      <c r="F871">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="872" xml:space="preserve">
+      <c r="A872" t="str">
+        <v>RAMA AGENCIES[BR0245]</v>
+      </c>
+      <c r="B872" t="str">
+        <v>611/23/T1-2372</v>
+      </c>
+      <c r="C872" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D872" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E872" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F872">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="873" xml:space="preserve">
+      <c r="A873" t="str">
+        <v>MEDICOS[BR0258]</v>
+      </c>
+      <c r="B873" t="str">
+        <v>611/23/T1-2373</v>
+      </c>
+      <c r="C873" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D873" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E873" t="str">
+        <v>3800</v>
+      </c>
+      <c r="F873">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="874" xml:space="preserve">
+      <c r="A874" t="str">
+        <v>MEDICOS[BR0258]</v>
+      </c>
+      <c r="B874" t="str">
+        <v>611/23/T1-2374</v>
+      </c>
+      <c r="C874" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D874" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E874" t="str">
+        <v>1000</v>
+      </c>
+      <c r="F874">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="875" xml:space="preserve">
+      <c r="A875" t="str">
+        <v>MEDICOS[BR0258]</v>
+      </c>
+      <c r="B875" t="str">
+        <v>611/23/T1-2375</v>
+      </c>
+      <c r="C875" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D875" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E875" t="str">
+        <v>4700</v>
+      </c>
+      <c r="F875">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="876" xml:space="preserve">
+      <c r="A876" t="str">
+        <v>ANAND PHARMACEUTICALS[BR0263]</v>
+      </c>
+      <c r="B876" t="str">
+        <v>611/23/T1-2376</v>
+      </c>
+      <c r="C876" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D876" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E876" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F876">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="877" xml:space="preserve">
+      <c r="A877" t="str">
+        <v>ANAND PHARMACEUTICALS[BR0263]</v>
+      </c>
+      <c r="B877" t="str">
+        <v>611/23/T1-2377</v>
+      </c>
+      <c r="C877" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D877" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E877" t="str">
+        <v>047</v>
+      </c>
+      <c r="F877">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="878" xml:space="preserve">
+      <c r="A878" t="str">
+        <v>MOHAN AGENCIES[BR0266]</v>
+      </c>
+      <c r="B878" t="str">
+        <v>611/23/T1-2378</v>
+      </c>
+      <c r="C878" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D878" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E878" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F878">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="879" xml:space="preserve">
+      <c r="A879" t="str">
+        <v>MOHAN AGENCIES[BR0266]</v>
+      </c>
+      <c r="B879" t="str">
+        <v>611/23/T1-2379</v>
+      </c>
+      <c r="C879" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D879" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E879" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F879">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="880" xml:space="preserve">
+      <c r="A880" t="str">
+        <v>SHYAM MANOHAR V.VERMA[BR0269]</v>
+      </c>
+      <c r="B880" t="str">
+        <v>611/23/T1-2380</v>
+      </c>
+      <c r="C880" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D880" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E880" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F880">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="881" xml:space="preserve">
+      <c r="A881" t="str">
+        <v>DRUG CENTRE[BR0274]</v>
+      </c>
+      <c r="B881" t="str">
+        <v>611/23/T1-2381</v>
+      </c>
+      <c r="C881" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D881" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E881" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F881">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="882" xml:space="preserve">
+      <c r="A882" t="str">
+        <v>UNITED PHARMA[UP0276]</v>
+      </c>
+      <c r="B882" t="str">
+        <v>611/23/T1-2382</v>
+      </c>
+      <c r="C882" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D882" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E882" t="str">
+        <v>036</v>
+      </c>
+      <c r="F882">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="883" xml:space="preserve">
+      <c r="A883" t="str">
+        <v>UNITED PHARMA[UP0276]</v>
+      </c>
+      <c r="B883" t="str">
+        <v>611/23/T1-2383</v>
+      </c>
+      <c r="C883" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D883" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E883" t="str">
+        <v>17100</v>
+      </c>
+      <c r="F883">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="884" xml:space="preserve">
+      <c r="A884" t="str">
+        <v>UNITED PHARMA[UP0276]</v>
+      </c>
+      <c r="B884" t="str">
+        <v>611/23/T1-2384</v>
+      </c>
+      <c r="C884" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D884" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E884" t="str">
+        <v>5000</v>
+      </c>
+      <c r="F884">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="885" xml:space="preserve">
+      <c r="A885" t="str">
+        <v>GOPAL MEDICAL STORE[UP0277]</v>
+      </c>
+      <c r="B885" t="str">
+        <v>611/23/T1-2385</v>
+      </c>
+      <c r="C885" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D885" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E885" t="str">
+        <v>21300</v>
+      </c>
+      <c r="F885">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="886" xml:space="preserve">
+      <c r="A886" t="str">
+        <v>GOPAL MEDICAL STORE[UP0277]</v>
+      </c>
+      <c r="B886" t="str">
+        <v>611/23/T1-2386</v>
+      </c>
+      <c r="C886" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D886" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E886" t="str">
+        <v>29100</v>
+      </c>
+      <c r="F886">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="887" xml:space="preserve">
+      <c r="A887" t="str">
+        <v>GOPAL MEDICAL STORE[UP0277]</v>
+      </c>
+      <c r="B887" t="str">
+        <v>611/23/T1-2387</v>
+      </c>
+      <c r="C887" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D887" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E887" t="str">
+        <v>18800</v>
+      </c>
+      <c r="F887">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="888" xml:space="preserve">
+      <c r="A888" t="str">
+        <v>MADAN LAL GYAN CHAND[UP0279]</v>
+      </c>
+      <c r="B888" t="str">
+        <v>611/23/T1-2388</v>
+      </c>
+      <c r="C888" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D888" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E888" t="str">
+        <v>25600</v>
+      </c>
+      <c r="F888">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="889" xml:space="preserve">
+      <c r="A889" t="str">
+        <v>MADAN LAL GYAN CHAND[UP0279]</v>
+      </c>
+      <c r="B889" t="str">
+        <v>611/23/T1-2389</v>
+      </c>
+      <c r="C889" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D889" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E889" t="str">
+        <v>21300</v>
+      </c>
+      <c r="F889">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="890" xml:space="preserve">
+      <c r="A890" t="str">
+        <v>NEW PUNEET MEDICAL STORE[UP0280]</v>
+      </c>
+      <c r="B890" t="str">
+        <v>611/23/T1-2390</v>
+      </c>
+      <c r="C890" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D890" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E890" t="str">
+        <v>21300</v>
+      </c>
+      <c r="F890">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="891" xml:space="preserve">
+      <c r="A891" t="str">
+        <v>NEW PUNEET MEDICAL STORE[UP0280]</v>
+      </c>
+      <c r="B891" t="str">
+        <v>611/23/T1-2391</v>
+      </c>
+      <c r="C891" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D891" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E891" t="str">
+        <v>23500</v>
+      </c>
+      <c r="F891">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="892" xml:space="preserve">
+      <c r="A892" t="str">
+        <v>SWASTIK MEDICAL AGENCY[UP0290]</v>
+      </c>
+      <c r="B892" t="str">
+        <v>611/23/T1-2392</v>
+      </c>
+      <c r="C892" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D892" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E892" t="str">
+        <v>25600</v>
+      </c>
+      <c r="F892">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="893" xml:space="preserve">
+      <c r="A893" t="str">
+        <v>H.A.L PHARMA[UP0295]</v>
+      </c>
+      <c r="B893" t="str">
+        <v>611/23/T1-2393</v>
+      </c>
+      <c r="C893" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D893" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E893" t="str">
+        <v>12800</v>
+      </c>
+      <c r="F893">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="894" xml:space="preserve">
+      <c r="A894" t="str">
+        <v>SEVAK MEDICAL DISTRIBUTORS[UP0298]</v>
+      </c>
+      <c r="B894" t="str">
+        <v>611/23/T1-2394</v>
+      </c>
+      <c r="C894" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D894" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E894" t="str">
+        <v>8300</v>
+      </c>
+      <c r="F894">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="895" xml:space="preserve">
+      <c r="A895" t="str">
+        <v>SEVAK MEDICAL DISTRIBUTORS[UP0298]</v>
+      </c>
+      <c r="B895" t="str">
+        <v>611/23/T1-2395</v>
+      </c>
+      <c r="C895" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D895" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E895" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F895">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="896" xml:space="preserve">
+      <c r="A896" t="str">
+        <v>RANA AGENCIES[UP0307]</v>
+      </c>
+      <c r="B896" t="str">
+        <v>611/23/T1-2396</v>
+      </c>
+      <c r="C896" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D896" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E896" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F896">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="897" xml:space="preserve">
+      <c r="A897" t="str">
+        <v>RANA AGENCIES[UP0307]</v>
+      </c>
+      <c r="B897" t="str">
+        <v>611/23/T1-2397</v>
+      </c>
+      <c r="C897" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D897" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E897" t="str">
+        <v>13800</v>
+      </c>
+      <c r="F897">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="898" xml:space="preserve">
+      <c r="A898" t="str">
+        <v>TRIPATHI MEDICAL AGENCIES[UP0308]</v>
+      </c>
+      <c r="B898" t="str">
+        <v>611/23/T1-2398</v>
+      </c>
+      <c r="C898" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D898" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E898" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F898">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="899" xml:space="preserve">
+      <c r="A899" t="str">
+        <v>PAWAN PHARMA[UP0315]</v>
+      </c>
+      <c r="B899" t="str">
+        <v>611/23/T1-2399</v>
+      </c>
+      <c r="C899" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D899" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E899" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F899">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="900" xml:space="preserve">
+      <c r="A900" t="str">
+        <v>NARESH CHANDRA AGARWAL MED STO[UP0319]</v>
+      </c>
+      <c r="B900" t="str">
+        <v>611/23/T1-2400</v>
+      </c>
+      <c r="C900" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D900" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E900" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F900">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="901" xml:space="preserve">
+      <c r="A901" t="str">
+        <v>NARESH CHANDRA AGARWAL MED STO[UP0319]</v>
+      </c>
+      <c r="B901" t="str">
+        <v>611/23/T1-2401</v>
+      </c>
+      <c r="C901" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D901" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E901" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F901">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="902" xml:space="preserve">
+      <c r="A902" t="str">
+        <v>GARG ENTERPRISES[UP0320]</v>
+      </c>
+      <c r="B902" t="str">
+        <v>611/23/T1-2402</v>
+      </c>
+      <c r="C902" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D902" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E902" t="str">
+        <v>10700</v>
+      </c>
+      <c r="F902">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="903" xml:space="preserve">
+      <c r="A903" t="str">
+        <v>AJANTA AGENCIES[UP0321]</v>
+      </c>
+      <c r="B903" t="str">
+        <v>611/23/T1-2403</v>
+      </c>
+      <c r="C903" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D903" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E903" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F903">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="904" xml:space="preserve">
+      <c r="A904" t="str">
+        <v>AJANTA AGENCIES[UP0321]</v>
+      </c>
+      <c r="B904" t="str">
+        <v>611/23/T1-2404</v>
+      </c>
+      <c r="C904" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D904" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E904" t="str">
+        <v>2700</v>
+      </c>
+      <c r="F904">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="905" xml:space="preserve">
+      <c r="A905" t="str">
+        <v>AJANTA AGENCIES[UP0321]</v>
+      </c>
+      <c r="B905" t="str">
+        <v>611/23/T1-2405</v>
+      </c>
+      <c r="C905" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D905" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E905" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F905">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="906" xml:space="preserve">
+      <c r="A906" t="str">
+        <v>KUMAR PHARMA[UP0322]</v>
+      </c>
+      <c r="B906" t="str">
+        <v>611/23/T1-2406</v>
+      </c>
+      <c r="C906" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D906" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E906" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F906">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="907" xml:space="preserve">
+      <c r="A907" t="str">
+        <v>KUMAR PHARMA[UP0322]</v>
+      </c>
+      <c r="B907" t="str">
+        <v>611/23/T1-2407</v>
+      </c>
+      <c r="C907" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D907" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E907" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F907">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="908" xml:space="preserve">
+      <c r="A908" t="str">
+        <v>MEDICINE TRADERS[UP0327]</v>
+      </c>
+      <c r="B908" t="str">
+        <v>611/23/T1-2408</v>
+      </c>
+      <c r="C908" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D908" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E908" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F908">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="909" xml:space="preserve">
+      <c r="A909" t="str">
+        <v>MEDICINE TRADERS[UP0327]</v>
+      </c>
+      <c r="B909" t="str">
+        <v>611/23/T1-2409</v>
+      </c>
+      <c r="C909" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D909" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E909" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F909">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="910" xml:space="preserve">
+      <c r="A910" t="str">
+        <v>VIJAY MEDCAL AGENCIES[UP0330]</v>
+      </c>
+      <c r="B910" t="str">
+        <v>611/23/T1-2410</v>
+      </c>
+      <c r="C910" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D910" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E910" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F910">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="911" xml:space="preserve">
+      <c r="A911" t="str">
+        <v>VIJAY MEDCAL AGENCIES[UP0330]</v>
+      </c>
+      <c r="B911" t="str">
+        <v>611/23/T1-2411</v>
+      </c>
+      <c r="C911" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D911" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E911" t="str">
+        <v>2500</v>
+      </c>
+      <c r="F911">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="912" xml:space="preserve">
+      <c r="A912" t="str">
+        <v>VIJAY MEDCAL AGENCIES[UP0330]</v>
+      </c>
+      <c r="B912" t="str">
+        <v>611/23/T1-2412</v>
+      </c>
+      <c r="C912" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D912" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E912" t="str">
+        <v>4700</v>
+      </c>
+      <c r="F912">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="913" xml:space="preserve">
+      <c r="A913" t="str">
+        <v>SHIVAM DRUG AGENCY[UP0335]</v>
+      </c>
+      <c r="B913" t="str">
+        <v>611/23/T1-2413</v>
+      </c>
+      <c r="C913" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D913" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E913" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F913">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="914" xml:space="preserve">
+      <c r="A914" t="str">
+        <v>SHIVAM DRUG AGENCY[UP0335]</v>
+      </c>
+      <c r="B914" t="str">
+        <v>611/23/T1-2414</v>
+      </c>
+      <c r="C914" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D914" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E914" t="str">
+        <v>3700</v>
+      </c>
+      <c r="F914">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="915" xml:space="preserve">
+      <c r="A915" t="str">
+        <v>SHIVAM DRUG AGENCY[UP0335]</v>
+      </c>
+      <c r="B915" t="str">
+        <v>611/23/T1-2415</v>
+      </c>
+      <c r="C915" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D915" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E915" t="str">
+        <v>12900</v>
+      </c>
+      <c r="F915">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="916" xml:space="preserve">
+      <c r="A916" t="str">
+        <v>SHIVAM DRUG AGENCY[UP0335]</v>
+      </c>
+      <c r="B916" t="str">
+        <v>611/23/T1-2416</v>
+      </c>
+      <c r="C916" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D916" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E916" t="str">
+        <v>10400</v>
+      </c>
+      <c r="F916">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="917" xml:space="preserve">
+      <c r="A917" t="str">
+        <v>SHIVAM DRUG AGENCY[UP0335]</v>
+      </c>
+      <c r="B917" t="str">
+        <v>611/23/T1-2417</v>
+      </c>
+      <c r="C917" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D917" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E917" t="str">
+        <v>57900</v>
+      </c>
+      <c r="F917">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="918" xml:space="preserve">
+      <c r="A918" t="str">
+        <v>AVAISH PHARMA[UP0342]</v>
+      </c>
+      <c r="B918" t="str">
+        <v>611/23/T1-2418</v>
+      </c>
+      <c r="C918" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D918" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E918" t="str">
+        <v>5500</v>
+      </c>
+      <c r="F918">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="919" xml:space="preserve">
+      <c r="A919" t="str">
+        <v>KRISHNA MEDICAL STORES[UP0345]</v>
+      </c>
+      <c r="B919" t="str">
+        <v>611/23/T1-2419</v>
+      </c>
+      <c r="C919" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D919" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E919" t="str">
+        <v>14100</v>
+      </c>
+      <c r="F919">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="920" xml:space="preserve">
+      <c r="A920" t="str">
+        <v>KRISHNA MEDICAL STORES[UP0345]</v>
+      </c>
+      <c r="B920" t="str">
+        <v>611/23/T1-2420</v>
+      </c>
+      <c r="C920" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D920" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E920" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F920">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="921" xml:space="preserve">
+      <c r="A921" t="str">
+        <v>KRISHNA MEDICAL STORES[UP0345]</v>
+      </c>
+      <c r="B921" t="str">
+        <v>611/23/T1-2421</v>
+      </c>
+      <c r="C921" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D921" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E921" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F921">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="922" xml:space="preserve">
+      <c r="A922" t="str">
+        <v>KUSHWAHA MEDICAL AGENCIES[UP0347]</v>
+      </c>
+      <c r="B922" t="str">
+        <v>611/23/T1-2422</v>
+      </c>
+      <c r="C922" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D922" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E922" t="str">
+        <v>4700</v>
+      </c>
+      <c r="F922">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="923" xml:space="preserve">
+      <c r="A923" t="str">
+        <v>MEDICO DAWA KENDRA[UP0348]</v>
+      </c>
+      <c r="B923" t="str">
+        <v>611/23/T1-2423</v>
+      </c>
+      <c r="C923" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D923" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E923" t="str">
+        <v>23200</v>
+      </c>
+      <c r="F923">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="924" xml:space="preserve">
+      <c r="A924" t="str">
+        <v>MEDICO DAWA KENDRA[UP0348]</v>
+      </c>
+      <c r="B924" t="str">
+        <v>611/23/T1-2424</v>
+      </c>
+      <c r="C924" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D924" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E924" t="str">
+        <v>300</v>
+      </c>
+      <c r="F924">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="925" xml:space="preserve">
+      <c r="A925" t="str">
+        <v>MEDICO DAWA KENDRA[UP0348]</v>
+      </c>
+      <c r="B925" t="str">
+        <v>611/23/T1-2425</v>
+      </c>
+      <c r="C925" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D925" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E925" t="str">
+        <v>25600</v>
+      </c>
+      <c r="F925">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="926" xml:space="preserve">
+      <c r="A926" t="str">
+        <v>AMIT PHARMA[UP0350]</v>
+      </c>
+      <c r="B926" t="str">
+        <v>611/23/T1-2426</v>
+      </c>
+      <c r="C926" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D926" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E926" t="str">
+        <v>64000</v>
+      </c>
+      <c r="F926">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="927" xml:space="preserve">
+      <c r="A927" t="str">
+        <v>AMIT PHARMA[UP0350]</v>
+      </c>
+      <c r="B927" t="str">
+        <v>611/23/T1-2427</v>
+      </c>
+      <c r="C927" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D927" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E927" t="str">
+        <v>53100</v>
+      </c>
+      <c r="F927">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="928" xml:space="preserve">
+      <c r="A928" t="str">
+        <v>ASHOKA PHARMACUITICALS[UP0351]</v>
+      </c>
+      <c r="B928" t="str">
+        <v>611/23/T1-2428</v>
+      </c>
+      <c r="C928" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D928" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E928" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F928">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="929" xml:space="preserve">
+      <c r="A929" t="str">
+        <v>DRUG CENTRE[UP0358]</v>
+      </c>
+      <c r="B929" t="str">
+        <v>611/23/T1-2429</v>
+      </c>
+      <c r="C929" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D929" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E929" t="str">
+        <v>21300</v>
+      </c>
+      <c r="F929">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="930" xml:space="preserve">
+      <c r="A930" t="str">
+        <v>DRUG CENTRE[UP0358]</v>
+      </c>
+      <c r="B930" t="str">
+        <v>611/23/T1-2430</v>
+      </c>
+      <c r="C930" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D930" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E930" t="str">
+        <v>59800</v>
+      </c>
+      <c r="F930">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="931" xml:space="preserve">
+      <c r="A931" t="str">
+        <v>DRUG CENTRE[UP0358]</v>
+      </c>
+      <c r="B931" t="str">
+        <v>611/23/T1-2431</v>
+      </c>
+      <c r="C931" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D931" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E931" t="str">
+        <v>6900</v>
+      </c>
+      <c r="F931">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="932" xml:space="preserve">
+      <c r="A932" t="str">
+        <v>DRUG CENTRE[UP0358]</v>
+      </c>
+      <c r="B932" t="str">
+        <v>611/23/T1-2432</v>
+      </c>
+      <c r="C932" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D932" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E932" t="str">
+        <v>70400</v>
+      </c>
+      <c r="F932">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="933" xml:space="preserve">
+      <c r="A933" t="str">
+        <v>GOLDEN MEDICAL AGENCIES[UP0359]</v>
+      </c>
+      <c r="B933" t="str">
+        <v>611/23/T1-2433</v>
+      </c>
+      <c r="C933" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D933" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E933" t="str">
+        <v>12300</v>
+      </c>
+      <c r="F933">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="934" xml:space="preserve">
+      <c r="A934" t="str">
+        <v>GOLDEN MEDICAL AGENCIES[UP0359]</v>
+      </c>
+      <c r="B934" t="str">
+        <v>611/23/T1-2434</v>
+      </c>
+      <c r="C934" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D934" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E934" t="str">
+        <v>8800</v>
+      </c>
+      <c r="F934">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="935" xml:space="preserve">
+      <c r="A935" t="str">
+        <v>GOLDEN MEDICAL AGENCIES[UP0359]</v>
+      </c>
+      <c r="B935" t="str">
+        <v>611/23/T1-2435</v>
+      </c>
+      <c r="C935" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D935" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E935" t="str">
+        <v>17900</v>
+      </c>
+      <c r="F935">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="936" xml:space="preserve">
+      <c r="A936" t="str">
+        <v>SHYAM MEDICAL AGENCY[UP0377]</v>
+      </c>
+      <c r="B936" t="str">
+        <v>611/23/T1-2436</v>
+      </c>
+      <c r="C936" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D936" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E936" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F936">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="937" xml:space="preserve">
+      <c r="A937" t="str">
+        <v>SHYAM MEDICAL AGENCY[UP0377]</v>
+      </c>
+      <c r="B937" t="str">
+        <v>611/23/T1-2437</v>
+      </c>
+      <c r="C937" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D937" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E937" t="str">
+        <v>9400</v>
+      </c>
+      <c r="F937">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="938" xml:space="preserve">
+      <c r="A938" t="str">
+        <v>RAI MEDICAL STORE[UP0385]</v>
+      </c>
+      <c r="B938" t="str">
+        <v>611/23/T1-2438</v>
+      </c>
+      <c r="C938" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D938" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E938" t="str">
+        <v>128100</v>
+      </c>
+      <c r="F938">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="939" xml:space="preserve">
+      <c r="A939" t="str">
+        <v>RAI MEDICAL STORE[UP0385]</v>
+      </c>
+      <c r="B939" t="str">
+        <v>611/23/T1-2439</v>
+      </c>
+      <c r="C939" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D939" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E939" t="str">
+        <v>23500</v>
+      </c>
+      <c r="F939">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="940" xml:space="preserve">
+      <c r="A940" t="str">
+        <v>JANTA DRUG AGENCY[UP0389]</v>
+      </c>
+      <c r="B940" t="str">
+        <v>611/23/T1-2440</v>
+      </c>
+      <c r="C940" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D940" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E940" t="str">
+        <v>9300</v>
+      </c>
+      <c r="F940">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="941" xml:space="preserve">
+      <c r="A941" t="str">
+        <v>JANTA DRUG AGENCY[UP0389]</v>
+      </c>
+      <c r="B941" t="str">
+        <v>611/23/T1-2441</v>
+      </c>
+      <c r="C941" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D941" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E941" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F941">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="942" xml:space="preserve">
+      <c r="A942" t="str">
+        <v>AWADH MEDICAL AGENCIES[UP0390]</v>
+      </c>
+      <c r="B942" t="str">
+        <v>611/23/T1-2442</v>
+      </c>
+      <c r="C942" t="str" xml:space="preserve">
+        <v xml:space="preserve">:19-10-2023
+LR No.</v>
+      </c>
+      <c r="D942" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E942" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F942">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="943" xml:space="preserve">
+      <c r="A943" t="str">
+        <v>ARVIND MEDICALS[UP0403]</v>
+      </c>
+      <c r="B943" t="str">
+        <v>611/23/T1-2444</v>
+      </c>
+      <c r="C943" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D943" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E943" t="str">
+        <v>9400</v>
+      </c>
+      <c r="F943">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="944" xml:space="preserve">
+      <c r="A944" t="str">
+        <v>NEW PRAKASH PHARMA[UP0408]</v>
+      </c>
+      <c r="B944" t="str">
+        <v>611/23/T1-2445</v>
+      </c>
+      <c r="C944" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D944" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E944" t="str">
+        <v>200</v>
+      </c>
+      <c r="F944">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="945" xml:space="preserve">
+      <c r="A945" t="str">
+        <v>SHYAM MEDICAL AGENCIES[UP0410]</v>
+      </c>
+      <c r="B945" t="str">
+        <v>611/23/T1-2446</v>
+      </c>
+      <c r="C945" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D945" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E945" t="str">
+        <v>9400</v>
+      </c>
+      <c r="F945">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="946" xml:space="preserve">
+      <c r="A946" t="str">
+        <v>POPULAR COMPANY[UP0412]</v>
+      </c>
+      <c r="B946" t="str">
+        <v>611/23/T1-2447</v>
+      </c>
+      <c r="C946" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D946" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E946" t="str">
+        <v>4700</v>
+      </c>
+      <c r="F946">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="947" xml:space="preserve">
+      <c r="A947" t="str">
+        <v>RAVI AGENCY[UP0414]</v>
+      </c>
+      <c r="B947" t="str">
+        <v>611/23/T1-2448</v>
+      </c>
+      <c r="C947" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D947" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E947" t="str">
+        <v>6700</v>
+      </c>
+      <c r="F947">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="948" xml:space="preserve">
+      <c r="A948" t="str">
+        <v>RAVI AGENCY[UP0414]</v>
+      </c>
+      <c r="B948" t="str">
+        <v>611/23/T1-2449</v>
+      </c>
+      <c r="C948" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D948" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E948" t="str">
+        <v>8000</v>
+      </c>
+      <c r="F948">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="949" xml:space="preserve">
+      <c r="A949" t="str">
+        <v>RAVI AGENCY[UP0414]</v>
+      </c>
+      <c r="B949" t="str">
+        <v>611/23/T1-2450</v>
+      </c>
+      <c r="C949" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D949" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E949" t="str">
+        <v>9100</v>
+      </c>
+      <c r="F949">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="950" xml:space="preserve">
+      <c r="A950" t="str">
+        <v>POPULAR MEDICAL HALL[UP0415]</v>
+      </c>
+      <c r="B950" t="str">
+        <v>611/23/T1-2451</v>
+      </c>
+      <c r="C950" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D950" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E950" t="str">
+        <v>4100</v>
+      </c>
+      <c r="F950">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="951" xml:space="preserve">
+      <c r="A951" t="str">
+        <v>ASHA PHARMA[UP0416]</v>
+      </c>
+      <c r="B951" t="str">
+        <v>611/23/T1-2452</v>
+      </c>
+      <c r="C951" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D951" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E951" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F951">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="952" xml:space="preserve">
+      <c r="A952" t="str">
+        <v>ASHA PHARMA[UP0416]</v>
+      </c>
+      <c r="B952" t="str">
+        <v>611/23/T1-2453</v>
+      </c>
+      <c r="C952" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D952" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E952" t="str">
+        <v>1300</v>
+      </c>
+      <c r="F952">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="953" xml:space="preserve">
+      <c r="A953" t="str">
+        <v>ASHA PHARMA[UP0416]</v>
+      </c>
+      <c r="B953" t="str">
+        <v>611/23/T1-2454</v>
+      </c>
+      <c r="C953" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D953" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E953" t="str">
+        <v>2600</v>
+      </c>
+      <c r="F953">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="954" xml:space="preserve">
+      <c r="A954" t="str">
+        <v>AGARWAL AGENCIES[UP0417]</v>
+      </c>
+      <c r="B954" t="str">
+        <v>611/23/T1-2455</v>
+      </c>
+      <c r="C954" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D954" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E954" t="str">
+        <v>106700</v>
+      </c>
+      <c r="F954">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="955" xml:space="preserve">
+      <c r="A955" t="str">
+        <v>AGARWAL AGENCIES[UP0417]</v>
+      </c>
+      <c r="B955" t="str">
+        <v>611/23/T1-2456</v>
+      </c>
+      <c r="C955" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D955" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E955" t="str">
+        <v>85400</v>
+      </c>
+      <c r="F955">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="956" xml:space="preserve">
+      <c r="A956" t="str">
+        <v>AGARWAL DRUG STORES[UP0419]</v>
+      </c>
+      <c r="B956" t="str">
+        <v>611/23/T1-2457</v>
+      </c>
+      <c r="C956" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D956" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E956" t="str">
+        <v>4000</v>
+      </c>
+      <c r="F956">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="957" xml:space="preserve">
+      <c r="A957" t="str">
+        <v>AGARWAL DRUG STORES[UP0419]</v>
+      </c>
+      <c r="B957" t="str">
+        <v>611/23/T1-2458</v>
+      </c>
+      <c r="C957" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D957" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E957" t="str">
+        <v>8700</v>
+      </c>
+      <c r="F957">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="958" xml:space="preserve">
+      <c r="A958" t="str">
+        <v>AGARWAL DRUG STORES[UP0419]</v>
+      </c>
+      <c r="B958" t="str">
+        <v>611/23/T1-2459</v>
+      </c>
+      <c r="C958" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D958" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E958" t="str">
+        <v>13500</v>
+      </c>
+      <c r="F958">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="959" xml:space="preserve">
+      <c r="A959" t="str">
+        <v>PRAVEEN MEDICAL STORES[UP0422]</v>
+      </c>
+      <c r="B959" t="str">
+        <v>611/23/T1-2460</v>
+      </c>
+      <c r="C959" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D959" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E959" t="str">
+        <v>12800</v>
+      </c>
+      <c r="F959">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="960" xml:space="preserve">
+      <c r="A960" t="str">
+        <v>GARG MEDICAL AGENCY[UP0424]</v>
+      </c>
+      <c r="B960" t="str">
+        <v>611/23/T1-2461</v>
+      </c>
+      <c r="C960" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D960" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E960" t="str">
+        <v>12800</v>
+      </c>
+      <c r="F960">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="961" xml:space="preserve">
+      <c r="A961" t="str">
+        <v>GARG MEDICAL AGENCY[UP0424]</v>
+      </c>
+      <c r="B961" t="str">
+        <v>611/23/T1-2462</v>
+      </c>
+      <c r="C961" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D961" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E961" t="str">
+        <v>043</v>
+      </c>
+      <c r="F961">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="962" xml:space="preserve">
+      <c r="A962" t="str">
+        <v>KHATRI PHARMA[UP0430]</v>
+      </c>
+      <c r="B962" t="str">
+        <v>611/23/T1-2463</v>
+      </c>
+      <c r="C962" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D962" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E962" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F962">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="963" xml:space="preserve">
+      <c r="A963" t="str">
+        <v>JANTA MEDICAL STORE[UP0445]</v>
+      </c>
+      <c r="B963" t="str">
+        <v>611/23/T1-2464</v>
+      </c>
+      <c r="C963" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D963" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E963" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F963">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="964" xml:space="preserve">
+      <c r="A964" t="str">
+        <v>JANTA MEDICAL STORE[UP0445]</v>
+      </c>
+      <c r="B964" t="str">
+        <v>611/23/T1-2465</v>
+      </c>
+      <c r="C964" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D964" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E964" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F964">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="965" xml:space="preserve">
+      <c r="A965" t="str">
+        <v>CHANDRA MEDICAL STORE[UP0447]</v>
+      </c>
+      <c r="B965" t="str">
+        <v>611/23/T1-2466</v>
+      </c>
+      <c r="C965" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D965" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E965" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F965">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="966" xml:space="preserve">
+      <c r="A966" t="str">
+        <v>CHANDRA MEDICAL STORE[UP0447]</v>
+      </c>
+      <c r="B966" t="str">
+        <v>611/23/T1-2467</v>
+      </c>
+      <c r="C966" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D966" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E966" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F966">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="967" xml:space="preserve">
+      <c r="A967" t="str">
+        <v>DAWA GHAR[UP0454]</v>
+      </c>
+      <c r="B967" t="str">
+        <v>611/23/T1-2468</v>
+      </c>
+      <c r="C967" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D967" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E967" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F967">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="968" xml:space="preserve">
+      <c r="A968" t="str">
+        <v>SANA MEDICAL AGENCIES[UP0465]</v>
+      </c>
+      <c r="B968" t="str">
+        <v>611/23/T1-2469</v>
+      </c>
+      <c r="C968" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D968" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E968" t="str">
+        <v>9400</v>
+      </c>
+      <c r="F968">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="969" xml:space="preserve">
+      <c r="A969" t="str">
+        <v>SANA MEDICAL AGENCIES[UP0465]</v>
+      </c>
+      <c r="B969" t="str">
+        <v>611/23/T1-2470</v>
+      </c>
+      <c r="C969" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D969" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E969" t="str">
+        <v>9400</v>
+      </c>
+      <c r="F969">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="970" xml:space="preserve">
+      <c r="A970" t="str">
+        <v>SINGHAL PHARMA[UP0467]</v>
+      </c>
+      <c r="B970" t="str">
+        <v>611/23/T1-2471</v>
+      </c>
+      <c r="C970" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D970" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E970" t="str">
+        <v>4000</v>
+      </c>
+      <c r="F970">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="971" xml:space="preserve">
+      <c r="A971" t="str">
+        <v>SINGHAL PHARMA[UP0467]</v>
+      </c>
+      <c r="B971" t="str">
+        <v>611/23/T1-2472</v>
+      </c>
+      <c r="C971" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D971" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E971" t="str">
+        <v>9400</v>
+      </c>
+      <c r="F971">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="972" xml:space="preserve">
+      <c r="A972" t="str">
+        <v>KESARWANI CHEMIST[UP0473]</v>
+      </c>
+      <c r="B972" t="str">
+        <v>611/23/T1-2473</v>
+      </c>
+      <c r="C972" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D972" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E972" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F972">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="973" xml:space="preserve">
+      <c r="A973" t="str">
+        <v>KESARWANI CHEMIST[UP0473]</v>
+      </c>
+      <c r="B973" t="str">
+        <v>611/23/T1-2474</v>
+      </c>
+      <c r="C973" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D973" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E973" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F973">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="974" xml:space="preserve">
+      <c r="A974" t="str">
+        <v>KESARWANI CHEMIST[UP0473]</v>
+      </c>
+      <c r="B974" t="str">
+        <v>611/23/T1-2475</v>
+      </c>
+      <c r="C974" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D974" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E974" t="str">
+        <v>4700</v>
+      </c>
+      <c r="F974">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="975" xml:space="preserve">
+      <c r="A975" t="str">
+        <v>NARULA MEDICAL AGENCY[UP0474]</v>
+      </c>
+      <c r="B975" t="str">
+        <v>611/23/T1-2476</v>
+      </c>
+      <c r="C975" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D975" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E975" t="str">
+        <v>20400</v>
+      </c>
+      <c r="F975">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="976" xml:space="preserve">
+      <c r="A976" t="str">
+        <v>BABA PHARMACEUTICAL &amp; DISTRIBU[UP0477]</v>
+      </c>
+      <c r="B976" t="str">
+        <v>611/23/T1-2477</v>
+      </c>
+      <c r="C976" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D976" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E976" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F976">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="977" xml:space="preserve">
+      <c r="A977" t="str">
+        <v>BABA PHARMACEUTICAL &amp; DISTRIBU[UP0477]</v>
+      </c>
+      <c r="B977" t="str">
+        <v>611/23/T1-2478</v>
+      </c>
+      <c r="C977" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D977" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E977" t="str">
+        <v>4700</v>
+      </c>
+      <c r="F977">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="978" xml:space="preserve">
+      <c r="A978" t="str">
+        <v>SHYAM MEDICAL AGENCIES[UP0478]</v>
+      </c>
+      <c r="B978" t="str">
+        <v>611/23/T1-2479</v>
+      </c>
+      <c r="C978" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D978" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E978" t="str">
+        <v>4700</v>
+      </c>
+      <c r="F978">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="979" xml:space="preserve">
+      <c r="A979" t="str">
+        <v>SHYAM MEDICAL AGENCIES[UP0478]</v>
+      </c>
+      <c r="B979" t="str">
+        <v>611/23/T1-2480</v>
+      </c>
+      <c r="C979" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D979" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E979" t="str">
+        <v>4700</v>
+      </c>
+      <c r="F979">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="980" xml:space="preserve">
+      <c r="A980" t="str">
+        <v>OM MEDICINE COMPANY[UP0481]</v>
+      </c>
+      <c r="B980" t="str">
+        <v>611/23/T1-2481</v>
+      </c>
+      <c r="C980" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D980" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E980" t="str">
+        <v>21300</v>
+      </c>
+      <c r="F980">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="981" xml:space="preserve">
+      <c r="A981" t="str">
+        <v>OM MEDICINE COMPANY[UP0481]</v>
+      </c>
+      <c r="B981" t="str">
+        <v>611/23/T1-2482</v>
+      </c>
+      <c r="C981" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D981" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E981" t="str">
+        <v>23500</v>
+      </c>
+      <c r="F981">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="982" xml:space="preserve">
+      <c r="A982" t="str">
+        <v>RASTOGI DRUG AGENCIES[UP0484]</v>
+      </c>
+      <c r="B982" t="str">
+        <v>611/23/T1-2483</v>
+      </c>
+      <c r="C982" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D982" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E982" t="str">
+        <v>4400</v>
+      </c>
+      <c r="F982">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="983" xml:space="preserve">
+      <c r="A983" t="str">
+        <v>ANOOP PHARMA[UP0487]</v>
+      </c>
+      <c r="B983" t="str">
+        <v>611/23/T1-2484</v>
+      </c>
+      <c r="C983" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D983" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E983" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F983">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="984" xml:space="preserve">
+      <c r="A984" t="str">
+        <v>ANOOP PHARMA[UP0487]</v>
+      </c>
+      <c r="B984" t="str">
+        <v>611/23/T1-2485</v>
+      </c>
+      <c r="C984" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D984" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E984" t="str">
+        <v>4700</v>
+      </c>
+      <c r="F984">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="985" xml:space="preserve">
+      <c r="A985" t="str">
+        <v>RADHA SWAMI DISTRIBUTORS[UP0495]</v>
+      </c>
+      <c r="B985" t="str">
+        <v>611/23/T1-2486</v>
+      </c>
+      <c r="C985" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D985" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E985" t="str">
+        <v>17100</v>
+      </c>
+      <c r="F985">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="986" xml:space="preserve">
+      <c r="A986" t="str">
+        <v>RADHA SWAMI DISTRIBUTORS[UP0495]</v>
+      </c>
+      <c r="B986" t="str">
+        <v>611/23/T1-2487</v>
+      </c>
+      <c r="C986" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D986" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E986" t="str">
+        <v>12800</v>
+      </c>
+      <c r="F986">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="987" xml:space="preserve">
+      <c r="A987" t="str">
+        <v>RADHA SWAMI DISTRIBUTORS[UP0495]</v>
+      </c>
+      <c r="B987" t="str">
+        <v>611/23/T1-2488</v>
+      </c>
+      <c r="C987" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D987" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E987" t="str">
+        <v>12800</v>
+      </c>
+      <c r="F987">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="988" xml:space="preserve">
+      <c r="A988" t="str">
+        <v>RADHA SWAMI DISTRIBUTORS[UP0495]</v>
+      </c>
+      <c r="B988" t="str">
+        <v>611/23/T1-2489</v>
+      </c>
+      <c r="C988" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D988" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E988" t="str">
+        <v>4700</v>
+      </c>
+      <c r="F988">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="989" xml:space="preserve">
+      <c r="A989" t="str">
+        <v>AGARWAL PHARMA[UP0500]</v>
+      </c>
+      <c r="B989" t="str">
+        <v>611/23/T1-2490</v>
+      </c>
+      <c r="C989" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D989" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E989" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F989">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="990" xml:space="preserve">
+      <c r="A990" t="str">
+        <v>AGARWAL PHARMA[UP0500]</v>
+      </c>
+      <c r="B990" t="str">
+        <v>611/23/T1-2491</v>
+      </c>
+      <c r="C990" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D990" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E990" t="str">
+        <v>14100</v>
+      </c>
+      <c r="F990">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="991" xml:space="preserve">
+      <c r="A991" t="str">
+        <v>SIDDHARTH MEDICAL AGENCY[UP0507]</v>
+      </c>
+      <c r="B991" t="str">
+        <v>611/23/T1-2492</v>
+      </c>
+      <c r="C991" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D991" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E991" t="str">
+        <v>17100</v>
+      </c>
+      <c r="F991">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="992" xml:space="preserve">
+      <c r="A992" t="str">
+        <v>SIDDHARTH MEDICAL AGENCY[UP0507]</v>
+      </c>
+      <c r="B992" t="str">
+        <v>611/23/T1-2493</v>
+      </c>
+      <c r="C992" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D992" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E992" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F992">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="993" xml:space="preserve">
+      <c r="A993" t="str">
+        <v>SIDDHARTH MEDICAL AGENCY[UP0507]</v>
+      </c>
+      <c r="B993" t="str">
+        <v>611/23/T1-2494</v>
+      </c>
+      <c r="C993" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D993" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E993" t="str">
+        <v>13300</v>
+      </c>
+      <c r="F993">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="994" xml:space="preserve">
+      <c r="A994" t="str">
+        <v>KRISHNA MEDICALS[UP0510]</v>
+      </c>
+      <c r="B994" t="str">
+        <v>611/23/T1-2495</v>
+      </c>
+      <c r="C994" t="str" xml:space="preserve">
+        <v xml:space="preserve">:20-10-2023
+LR No.</v>
+      </c>
+      <c r="D994" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E994" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F994">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="995" xml:space="preserve">
+      <c r="A995" t="str">
+        <v>GOYAL CHEMISTS[UP0522]</v>
+      </c>
+      <c r="B995" t="str">
+        <v>611/23/T1-2496</v>
+      </c>
+      <c r="C995" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D995" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E995" t="str">
+        <v>12200</v>
+      </c>
+      <c r="F995">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="996" xml:space="preserve">
+      <c r="A996" t="str">
+        <v>GOYAL CHEMISTS[UP0522]</v>
+      </c>
+      <c r="B996" t="str">
+        <v>611/23/T1-2497</v>
+      </c>
+      <c r="C996" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D996" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E996" t="str">
+        <v>12800</v>
+      </c>
+      <c r="F996">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="997" xml:space="preserve">
+      <c r="A997" t="str">
+        <v>GOYAL CHEMISTS[UP0522]</v>
+      </c>
+      <c r="B997" t="str">
+        <v>611/23/T1-2498</v>
+      </c>
+      <c r="C997" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D997" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E997" t="str">
+        <v>10400</v>
+      </c>
+      <c r="F997">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="998" xml:space="preserve">
+      <c r="A998" t="str">
+        <v>GOYAL CHEMISTS[UP0522]</v>
+      </c>
+      <c r="B998" t="str">
+        <v>611/23/T1-2499</v>
+      </c>
+      <c r="C998" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D998" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E998" t="str">
+        <v>4500</v>
+      </c>
+      <c r="F998">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="999" xml:space="preserve">
+      <c r="A999" t="str">
+        <v>RAKESH MEDICAL HALL[UP0524]</v>
+      </c>
+      <c r="B999" t="str">
+        <v>611/23/T1-2500</v>
+      </c>
+      <c r="C999" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D999" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E999" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F999">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1000" xml:space="preserve">
+      <c r="A1000" t="str">
+        <v>RAKESH MEDICAL HALL[UP0524]</v>
+      </c>
+      <c r="B1000" t="str">
+        <v>611/23/T1-2501</v>
+      </c>
+      <c r="C1000" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1000" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E1000" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F1000">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="1001" xml:space="preserve">
+      <c r="A1001" t="str">
+        <v>RAKESH MEDICAL HALL[UP0524]</v>
+      </c>
+      <c r="B1001" t="str">
+        <v>611/23/T1-2502</v>
+      </c>
+      <c r="C1001" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1001" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E1001" t="str">
+        <v>4700</v>
+      </c>
+      <c r="F1001">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1002" xml:space="preserve">
+      <c r="A1002" t="str">
+        <v>SUSHIL MEDICAL AGENCY[UP0538]</v>
+      </c>
+      <c r="B1002" t="str">
+        <v>611/23/T1-2503</v>
+      </c>
+      <c r="C1002" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1002" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E1002" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F1002">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="1003" xml:space="preserve">
+      <c r="A1003" t="str">
+        <v>PREM MEDICAL STORE[UP0541]</v>
+      </c>
+      <c r="B1003" t="str">
+        <v>611/23/T1-2504</v>
+      </c>
+      <c r="C1003" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1003" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E1003" t="str">
+        <v>12800</v>
+      </c>
+      <c r="F1003">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1004" xml:space="preserve">
+      <c r="A1004" t="str">
+        <v>PREM MEDICAL STORE[UP0541]</v>
+      </c>
+      <c r="B1004" t="str">
+        <v>611/23/T1-2505</v>
+      </c>
+      <c r="C1004" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1004" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E1004" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F1004">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1005" xml:space="preserve">
+      <c r="A1005" t="str">
+        <v>PREM MEDICAL STORE[UP0541]</v>
+      </c>
+      <c r="B1005" t="str">
+        <v>611/23/T1-2506</v>
+      </c>
+      <c r="C1005" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1005" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E1005" t="str">
+        <v>17100</v>
+      </c>
+      <c r="F1005">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1006" xml:space="preserve">
+      <c r="A1006" t="str">
+        <v>PRAKASH MEDICAL STORE[UP0543]</v>
+      </c>
+      <c r="B1006" t="str">
+        <v>611/23/T1-2507</v>
+      </c>
+      <c r="C1006" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1006" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E1006" t="str">
+        <v>23500</v>
+      </c>
+      <c r="F1006">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1007" xml:space="preserve">
+      <c r="A1007" t="str">
+        <v>JAI MEDICAL STORE[UP0544]</v>
+      </c>
+      <c r="B1007" t="str">
+        <v>611/23/T1-2508</v>
+      </c>
+      <c r="C1007" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1007" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E1007" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F1007">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1008" xml:space="preserve">
+      <c r="A1008" t="str">
+        <v>POPULAR DRUG AGENCIES[UP0548]</v>
+      </c>
+      <c r="B1008" t="str">
+        <v>611/23/T1-2509</v>
+      </c>
+      <c r="C1008" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1008" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E1008" t="str">
+        <v>8700</v>
+      </c>
+      <c r="F1008">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1009" xml:space="preserve">
+      <c r="A1009" t="str">
+        <v>POPULAR DRUG AGENCIES[UP0548]</v>
+      </c>
+      <c r="B1009" t="str">
+        <v>611/23/T1-2510</v>
+      </c>
+      <c r="C1009" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1009" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E1009" t="str">
+        <v>4700</v>
+      </c>
+      <c r="F1009">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="1010" xml:space="preserve">
+      <c r="A1010" t="str">
+        <v>BANSAL MEDICAL AGENCIES[UP0552]</v>
+      </c>
+      <c r="B1010" t="str">
+        <v>611/23/T1-2511</v>
+      </c>
+      <c r="C1010" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1010" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E1010" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F1010">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1011" xml:space="preserve">
+      <c r="A1011" t="str">
+        <v>BANSAL MEDICAL AGENCIES[UP0552]</v>
+      </c>
+      <c r="B1011" t="str">
+        <v>611/23/T1-2512</v>
+      </c>
+      <c r="C1011" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1011" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E1011" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F1011">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1012" xml:space="preserve">
+      <c r="A1012" t="str">
+        <v>BANSAL MEDICAL AGENCIES[UP0552]</v>
+      </c>
+      <c r="B1012" t="str">
+        <v>611/23/T1-2513</v>
+      </c>
+      <c r="C1012" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1012" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E1012" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F1012">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1013" xml:space="preserve">
+      <c r="A1013" t="str">
+        <v>A.B.PHARMA[UP0553]</v>
+      </c>
+      <c r="B1013" t="str">
+        <v>611/23/T1-2514</v>
+      </c>
+      <c r="C1013" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1013" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E1013" t="str">
+        <v>9400</v>
+      </c>
+      <c r="F1013">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1014" xml:space="preserve">
+      <c r="A1014" t="str">
+        <v>KANT MEDICAL STORE[UP0554]</v>
+      </c>
+      <c r="B1014" t="str">
+        <v>611/23/T1-2515</v>
+      </c>
+      <c r="C1014" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1014" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E1014" t="str">
+        <v>12800</v>
+      </c>
+      <c r="F1014">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="1015" xml:space="preserve">
+      <c r="A1015" t="str">
+        <v>GARG PHARMACEUTICALS[UP0557]</v>
+      </c>
+      <c r="B1015" t="str">
+        <v>611/23/T1-2516</v>
+      </c>
+      <c r="C1015" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1015" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E1015" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F1015">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1016" xml:space="preserve">
+      <c r="A1016" t="str">
+        <v>NEW BAJPAI MEDICAL STORE[UP0558]</v>
+      </c>
+      <c r="B1016" t="str">
+        <v>611/23/T1-2517</v>
+      </c>
+      <c r="C1016" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1016" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E1016" t="str">
+        <v>4700</v>
+      </c>
+      <c r="F1016">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1017" xml:space="preserve">
+      <c r="A1017" t="str">
+        <v>VIJAY MEDICAL AGENCIES[UP0568]</v>
+      </c>
+      <c r="B1017" t="str">
+        <v>611/23/T1-2518</v>
+      </c>
+      <c r="C1017" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1017" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E1017" t="str">
+        <v>9400</v>
+      </c>
+      <c r="F1017">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1018" xml:space="preserve">
+      <c r="A1018" t="str">
+        <v>DHAWAN BROTHERS[UP0574]</v>
+      </c>
+      <c r="B1018" t="str">
+        <v>611/23/T1-2519</v>
+      </c>
+      <c r="C1018" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1018" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E1018" t="str">
+        <v>4700</v>
+      </c>
+      <c r="F1018">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="1019" xml:space="preserve">
+      <c r="A1019" t="str">
+        <v>MAA BHAGAWATI MEDICAL AGENCY[UP0578]</v>
+      </c>
+      <c r="B1019" t="str">
+        <v>611/23/T1-2520</v>
+      </c>
+      <c r="C1019" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1019" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E1019" t="str">
+        <v>25300</v>
+      </c>
+      <c r="F1019">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1020" xml:space="preserve">
+      <c r="A1020" t="str">
+        <v>MAA BHAGAWATI MEDICAL AGENCY[UP0578]</v>
+      </c>
+      <c r="B1020" t="str">
+        <v>611/23/T1-2521</v>
+      </c>
+      <c r="C1020" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1020" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E1020" t="str">
+        <v>10400</v>
+      </c>
+      <c r="F1020">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1021" xml:space="preserve">
+      <c r="A1021" t="str">
+        <v>MAA BHAGAWATI MEDICAL AGENCY[UP0578]</v>
+      </c>
+      <c r="B1021" t="str">
+        <v>611/23/T1-2522</v>
+      </c>
+      <c r="C1021" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1021" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E1021" t="str">
+        <v>14100</v>
+      </c>
+      <c r="F1021">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="1022" xml:space="preserve">
+      <c r="A1022" t="str">
+        <v>OM PRAKASH AND SONS[UP0586]</v>
+      </c>
+      <c r="B1022" t="str">
+        <v>611/23/T1-2523</v>
+      </c>
+      <c r="C1022" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1022" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E1022" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F1022">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1023" xml:space="preserve">
+      <c r="A1023" t="str">
+        <v>OM PRAKASH AND SONS[UP0586]</v>
+      </c>
+      <c r="B1023" t="str">
+        <v>611/23/T1-2524</v>
+      </c>
+      <c r="C1023" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1023" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E1023" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F1023">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1024" xml:space="preserve">
+      <c r="A1024" t="str">
+        <v>OM PRAKASH AND SONS[UP0586]</v>
+      </c>
+      <c r="B1024" t="str">
+        <v>611/23/T1-2525</v>
+      </c>
+      <c r="C1024" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1024" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E1024" t="str">
+        <v>3700</v>
+      </c>
+      <c r="F1024">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="1025" xml:space="preserve">
+      <c r="A1025" t="str">
+        <v>SRI SITARAM AGENCIES[UP0587]</v>
+      </c>
+      <c r="B1025" t="str">
+        <v>611/23/T1-2526</v>
+      </c>
+      <c r="C1025" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1025" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E1025" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F1025">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1026" xml:space="preserve">
+      <c r="A1026" t="str">
+        <v>SRI SITARAM AGENCIES[UP0587]</v>
+      </c>
+      <c r="B1026" t="str">
+        <v>611/23/T1-2527</v>
+      </c>
+      <c r="C1026" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1026" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E1026" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F1026">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="1027" xml:space="preserve">
+      <c r="A1027" t="str">
+        <v>SRI SITARAM AGENCIES[UP0587]</v>
+      </c>
+      <c r="B1027" t="str">
+        <v>611/23/T1-2528</v>
+      </c>
+      <c r="C1027" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1027" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E1027" t="str">
+        <v>9400</v>
+      </c>
+      <c r="F1027">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1028" xml:space="preserve">
+      <c r="A1028" t="str" xml:space="preserve">
+        <v xml:space="preserve">il: MSCPRASHANT194@GMAIL.COM
+MILAN SUPER AND COMPANY[UP0589]</v>
+      </c>
+      <c r="B1028" t="str">
+        <v>611/23/T1-2529</v>
+      </c>
+      <c r="C1028" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1028" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E1028" t="str">
+        <v>12800</v>
+      </c>
+      <c r="F1028">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1029" xml:space="preserve">
+      <c r="A1029" t="str" xml:space="preserve">
+        <v xml:space="preserve">il: MSCPRASHANT194@GMAIL.COM
+MILAN SUPER AND COMPANY[UP0589]</v>
+      </c>
+      <c r="B1029" t="str">
+        <v>611/23/T1-2530</v>
+      </c>
+      <c r="C1029" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1029" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E1029" t="str">
+        <v>14100</v>
+      </c>
+      <c r="F1029">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1030" xml:space="preserve">
+      <c r="A1030" t="str">
+        <v>J.J.AGENCIES[UP0593]</v>
+      </c>
+      <c r="B1030" t="str">
+        <v>611/23/T1-2531</v>
+      </c>
+      <c r="C1030" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1030" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E1030" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F1030">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1031" xml:space="preserve">
+      <c r="A1031" t="str">
+        <v>ASHUTOSH  PHARMA[UP0594]</v>
+      </c>
+      <c r="B1031" t="str">
+        <v>611/23/T1-2532</v>
+      </c>
+      <c r="C1031" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1031" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E1031" t="str">
+        <v>4000</v>
+      </c>
+      <c r="F1031">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="1032" xml:space="preserve">
+      <c r="A1032" t="str">
+        <v>G.K.BROTHERS[UP0599]</v>
+      </c>
+      <c r="B1032" t="str">
+        <v>611/23/T1-2533</v>
+      </c>
+      <c r="C1032" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1032" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E1032" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F1032">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1033" xml:space="preserve">
+      <c r="A1033" t="str">
+        <v>G.K.BROTHERS[UP0599]</v>
+      </c>
+      <c r="B1033" t="str">
+        <v>611/23/T1-2534</v>
+      </c>
+      <c r="C1033" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1033" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E1033" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F1033">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="1034" xml:space="preserve">
+      <c r="A1034" t="str">
+        <v>G.K.BROTHERS[UP0599]</v>
+      </c>
+      <c r="B1034" t="str">
+        <v>611/23/T1-2535</v>
+      </c>
+      <c r="C1034" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1034" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E1034" t="str">
+        <v>39300</v>
+      </c>
+      <c r="F1034">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="1035" xml:space="preserve">
+      <c r="A1035" t="str">
+        <v>MAYURI   PHARMACEUTICALS[UP0601]</v>
+      </c>
+      <c r="B1035" t="str">
+        <v>611/23/T1-2536</v>
+      </c>
+      <c r="C1035" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1035" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E1035" t="str">
+        <v>12800</v>
+      </c>
+      <c r="F1035">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1036" xml:space="preserve">
+      <c r="A1036" t="str">
+        <v>MAYURI   PHARMACEUTICALS[UP0601]</v>
+      </c>
+      <c r="B1036" t="str">
+        <v>611/23/T1-2537</v>
+      </c>
+      <c r="C1036" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1036" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E1036" t="str">
+        <v>12800</v>
+      </c>
+      <c r="F1036">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="1037" xml:space="preserve">
+      <c r="A1037" t="str">
+        <v>MAYURI   PHARMACEUTICALS[UP0601]</v>
+      </c>
+      <c r="B1037" t="str">
+        <v>611/23/T1-2538</v>
+      </c>
+      <c r="C1037" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1037" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E1037" t="str">
+        <v>25600</v>
+      </c>
+      <c r="F1037">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="1038" xml:space="preserve">
+      <c r="A1038" t="str">
+        <v>SARASWATI MEDICAL AGENCY[UP0610]</v>
+      </c>
+      <c r="B1038" t="str">
+        <v>611/23/T1-2539</v>
+      </c>
+      <c r="C1038" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1038" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E1038" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F1038">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="1039" xml:space="preserve">
+      <c r="A1039" t="str">
+        <v>B.K DRUG AGENCY[UP0614]</v>
+      </c>
+      <c r="B1039" t="str">
+        <v>611/23/T1-2540</v>
+      </c>
+      <c r="C1039" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1039" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E1039" t="str">
+        <v>12800</v>
+      </c>
+      <c r="F1039">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="1040" xml:space="preserve">
+      <c r="A1040" t="str">
+        <v>B.K DRUG AGENCY[UP0614]</v>
+      </c>
+      <c r="B1040" t="str">
+        <v>611/23/T1-2541</v>
+      </c>
+      <c r="C1040" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1040" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E1040" t="str">
+        <v>4300</v>
+      </c>
+      <c r="F1040">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1041" xml:space="preserve">
+      <c r="A1041" t="str">
+        <v>RAKESH PHARMA[UP0615]</v>
+      </c>
+      <c r="B1041" t="str">
+        <v>611/23/T1-2542</v>
+      </c>
+      <c r="C1041" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1041" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E1041" t="str">
+        <v>5800</v>
+      </c>
+      <c r="F1041">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="1042" xml:space="preserve">
+      <c r="A1042" t="str">
+        <v>JAMUNA MEDICAL AGENCIES[UP0618]</v>
+      </c>
+      <c r="B1042" t="str">
+        <v>611/23/T1-2543</v>
+      </c>
+      <c r="C1042" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1042" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E1042" t="str">
+        <v>4700</v>
+      </c>
+      <c r="F1042">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="1043" xml:space="preserve">
+      <c r="A1043" t="str">
+        <v>SARAS MEDICAL AGENCIES[UP0619]</v>
+      </c>
+      <c r="B1043" t="str">
+        <v>611/23/T1-2544</v>
+      </c>
+      <c r="C1043" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1043" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E1043" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F1043">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="1044" xml:space="preserve">
+      <c r="A1044" t="str">
+        <v>SARAS MEDICAL AGENCIES[UP0619]</v>
+      </c>
+      <c r="B1044" t="str">
+        <v>611/23/T1-2545</v>
+      </c>
+      <c r="C1044" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1044" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E1044" t="str">
+        <v>8500</v>
+      </c>
+      <c r="F1044">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="1045" xml:space="preserve">
+      <c r="A1045" t="str">
+        <v>SARAS MEDICAL AGENCIES[UP0619]</v>
+      </c>
+      <c r="B1045" t="str">
+        <v>611/23/T1-2546</v>
+      </c>
+      <c r="C1045" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1045" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E1045" t="str">
+        <v>1300</v>
+      </c>
+      <c r="F1045">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="1046" xml:space="preserve">
+      <c r="A1046" t="str">
+        <v>SARAS MEDICAL AGENCIES[UP0619]</v>
+      </c>
+      <c r="B1046" t="str">
+        <v>611/23/T1-2547</v>
+      </c>
+      <c r="C1046" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1046" t="str">
+        <v>QPSASPGEL202211</v>
+      </c>
+      <c r="E1046" t="str">
+        <v>9400</v>
+      </c>
+      <c r="F1046">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1047" xml:space="preserve">
+      <c r="A1047" t="str">
+        <v>KANAHAIYA LAL PRAYAG DUTTA[UP0621]</v>
+      </c>
+      <c r="B1047" t="str">
+        <v>611/23/T1-2548</v>
+      </c>
+      <c r="C1047" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1047" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E1047" t="str">
+        <v>21300</v>
+      </c>
+      <c r="F1047">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1048" xml:space="preserve">
+      <c r="A1048" t="str">
+        <v>KANAHAIYA LAL PRAYAG DUTTA[UP0621]</v>
+      </c>
+      <c r="B1048" t="str">
+        <v>611/23/T1-2549</v>
+      </c>
+      <c r="C1048" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1048" t="str">
+        <v>QPSASPGEL202208</v>
+      </c>
+      <c r="E1048" t="str">
+        <v>25400</v>
+      </c>
+      <c r="F1048">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1049" xml:space="preserve">
+      <c r="A1049" t="str">
+        <v>KANAHAIYA LAL PRAYAG DUTTA[UP0621]</v>
+      </c>
+      <c r="B1049" t="str">
+        <v>611/23/T1-2550</v>
+      </c>
+      <c r="C1049" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1049" t="str">
+        <v>QPSASPGEL202209</v>
+      </c>
+      <c r="E1049" t="str">
+        <v>17100</v>
+      </c>
+      <c r="F1049">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="1050" xml:space="preserve">
+      <c r="A1050" t="str">
+        <v>KANAHAIYA LAL PRAYAG DUTTA[UP0621]</v>
+      </c>
+      <c r="B1050" t="str">
+        <v>611/23/T1-2551</v>
+      </c>
+      <c r="C1050" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1050" t="str">
+        <v>QPSASPGEL202210</v>
+      </c>
+      <c r="E1050" t="str">
+        <v>35400</v>
+      </c>
+      <c r="F1050">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1051" xml:space="preserve">
+      <c r="A1051" t="str">
+        <v>SHRI RAM DUTT PHARMA[UP0624]</v>
+      </c>
+      <c r="B1051" t="str">
+        <v>611/23/T1-2552</v>
+      </c>
+      <c r="C1051" t="str" xml:space="preserve">
+        <v xml:space="preserve">:21-10-2023
+LR No.</v>
+      </c>
+      <c r="D1051" t="str">
+        <v>QPSASPGEL202207</v>
+      </c>
+      <c r="E1051" t="str">
+        <v>2400</v>
+      </c>
+      <c r="F1051">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="str">
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F701"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F1052"/>
   </ignoredErrors>
 </worksheet>
 </file>